--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB7935-F9F5-4837-8E7A-5D544467C8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089514A2-35DB-41F2-84BC-95295676ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -212,12 +212,80 @@
     <t>#猎人</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>新增技能生命恢复,可以立即回复自身20%生命</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能生命恢复,可以立即回复自身10%生命</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能生命恢复,可以立即回复自身30%生命</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增强击技能,立即对目标造成100%伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增强击技能,立即对目标造成200%伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增强击技能,立即对目标造成300%伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋3_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋3_2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋3_3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋1_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋1_2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋2_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋2_2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋2_3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋4_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋4_2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋4_3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +382,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="23">
@@ -8238,7 +8313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8268,6 +8343,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2603">
@@ -11201,10 +11282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M46"/>
+  <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11354,8 +11435,8 @@
       <c r="C7" s="4">
         <v>1100101</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
+      <c r="D7" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -11378,8 +11459,8 @@
       <c r="K7" s="4">
         <v>10001</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>24</v>
+      <c r="L7" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -11389,8 +11470,8 @@
       <c r="C8" s="4">
         <v>1100102</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -11413,15 +11494,17 @@
       <c r="K8" s="4">
         <v>10001</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="4">
         <v>1100103</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
+      <c r="D9" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -11444,15 +11527,17 @@
       <c r="K9" s="4">
         <v>10001</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="4">
         <v>1100201</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
+      <c r="D10" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -11464,7 +11549,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="4">
-        <v>1100101</v>
+        <v>1100303</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -11475,8 +11560,8 @@
       <c r="K10" s="4">
         <v>10001</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>29</v>
+      <c r="L10" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>30</v>
@@ -11486,8 +11571,8 @@
       <c r="C11" s="4">
         <v>1100202</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
+      <c r="D11" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -11499,7 +11584,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="4">
-        <v>1100102</v>
+        <v>1100303</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -11510,8 +11595,8 @@
       <c r="K11" s="4">
         <v>10001</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>29</v>
+      <c r="L11" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>30</v>
@@ -11521,8 +11606,8 @@
       <c r="C12" s="4">
         <v>1100203</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
+      <c r="D12" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -11534,7 +11619,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="4">
-        <v>1100103</v>
+        <v>1100303</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -11545,8 +11630,8 @@
       <c r="K12" s="4">
         <v>10001</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>29</v>
+      <c r="L12" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>30</v>
@@ -11554,22 +11639,22 @@
     </row>
     <row r="13" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4">
-        <v>1200101</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>1100301</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>1100103</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -11580,93 +11665,101 @@
       <c r="K13" s="4">
         <v>10001</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>24</v>
+      <c r="L13" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4">
-        <v>1200102</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>1100302</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>1100103</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4">
         <v>10001</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
+      <c r="L14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4">
-        <v>1200103</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>1100303</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1100103</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K15" s="4">
         <v>10001</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
+      <c r="L15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="4">
-        <v>1200201</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>1100401</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="4">
-        <v>1200101</v>
+        <v>1100303</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -11677,8 +11770,8 @@
       <c r="K16" s="4">
         <v>10001</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>29</v>
+      <c r="L16" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>30</v>
@@ -11686,22 +11779,22 @@
     </row>
     <row r="17" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="4">
-        <v>1200202</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>1100402</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4">
-        <v>1200102</v>
+        <v>1100303</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -11712,8 +11805,8 @@
       <c r="K17" s="4">
         <v>10001</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
+      <c r="L17" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>30</v>
@@ -11721,22 +11814,22 @@
     </row>
     <row r="18" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="4">
-        <v>1200203</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>1100403</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>1200103</v>
+        <v>1100303</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -11747,41 +11840,93 @@
       <c r="K18" s="4">
         <v>10001</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>29</v>
+      <c r="L18" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="19" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="4">
+        <v>1200101</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>15</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="20" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="9"/>
+      <c r="C20" s="4">
+        <v>1200102</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4">
-        <v>2100101</v>
+        <v>1200103</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
         <v>2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -11793,98 +11938,104 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K21" s="4">
         <v>10001</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="L21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="4">
-        <v>2100102</v>
+        <v>1200201</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>1200101</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="4">
         <v>10001</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
+      <c r="L22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="4">
-        <v>2100103</v>
+        <v>1200202</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
       <c r="G23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>1200102</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K23" s="4">
         <v>10001</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4">
-        <v>2100201</v>
+        <v>1200203</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
         <v>2</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
       </c>
       <c r="H24" s="4">
-        <v>2100101</v>
+        <v>1200103</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -11895,86 +12046,32 @@
       <c r="K24" s="4">
         <v>10001</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>29</v>
+      <c r="L24" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="4">
-        <v>2100202</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2100102</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>15</v>
-      </c>
-      <c r="K25" s="4">
-        <v>10001</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="26" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="4">
-        <v>2100203</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2100103</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>15</v>
-      </c>
-      <c r="K26" s="4">
-        <v>10001</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="4">
-        <v>2200101</v>
+        <v>2100101</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
@@ -11983,7 +12080,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -12009,7 +12106,7 @@
     </row>
     <row r="28" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="4">
-        <v>2200102</v>
+        <v>2100102</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>26</v>
@@ -12018,7 +12115,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -12040,7 +12137,7 @@
     </row>
     <row r="29" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="4">
-        <v>2200103</v>
+        <v>2100103</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>27</v>
@@ -12049,7 +12146,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -12071,7 +12168,7 @@
     </row>
     <row r="30" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="4">
-        <v>2200201</v>
+        <v>2100201</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>28</v>
@@ -12080,13 +12177,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
       </c>
       <c r="H30" s="4">
-        <v>2200101</v>
+        <v>2100101</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -12106,7 +12203,7 @@
     </row>
     <row r="31" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="4">
-        <v>2200202</v>
+        <v>2100202</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
@@ -12115,13 +12212,13 @@
         <v>2</v>
       </c>
       <c r="F31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
       </c>
       <c r="H31" s="4">
-        <v>2200102</v>
+        <v>2100102</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
@@ -12141,7 +12238,7 @@
     </row>
     <row r="32" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4">
-        <v>2200203</v>
+        <v>2100203</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>32</v>
@@ -12150,13 +12247,13 @@
         <v>2</v>
       </c>
       <c r="F32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4">
         <v>2</v>
       </c>
       <c r="H32" s="4">
-        <v>2200103</v>
+        <v>2100103</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -12174,34 +12271,84 @@
         <v>30</v>
       </c>
     </row>
+    <row r="33" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="4">
+        <v>2200101</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>15</v>
+      </c>
+      <c r="K33" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="34" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="C34" s="4">
+        <v>2200102</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>16</v>
+      </c>
+      <c r="K34" s="4">
+        <v>10001</v>
+      </c>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="4">
-        <v>3100101</v>
+        <v>2200103</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E35" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -12213,98 +12360,102 @@
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K35" s="4">
         <v>10001</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="4">
-        <v>3100102</v>
+        <v>2200201</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E36" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>2200101</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
       </c>
       <c r="J36" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="4">
         <v>10001</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
+      <c r="L36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="4">
-        <v>3100103</v>
+        <v>2200202</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E37" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4">
-        <v>0</v>
+        <v>2200102</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K37" s="4">
         <v>10001</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
+      <c r="L37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="4">
-        <v>3100201</v>
+        <v>2200203</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E38" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="4">
         <v>2</v>
       </c>
       <c r="H38" s="4">
-        <v>3100101</v>
+        <v>2200103</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
@@ -12322,79 +12473,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="4">
-        <v>3100202</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="4">
-        <v>3</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4">
-        <v>2</v>
-      </c>
-      <c r="H39" s="4">
-        <v>3100102</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>15</v>
-      </c>
-      <c r="K39" s="4">
-        <v>10001</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="40" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="4">
-        <v>3100203</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="4">
-        <v>3</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4">
-        <v>2</v>
-      </c>
-      <c r="H40" s="4">
-        <v>3100103</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>15</v>
-      </c>
-      <c r="K40" s="4">
-        <v>10001</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="4">
-        <v>3200101</v>
+        <v>3100101</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>23</v>
@@ -12403,7 +12500,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
@@ -12429,7 +12526,7 @@
     </row>
     <row r="42" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="4">
-        <v>3200102</v>
+        <v>3100102</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>26</v>
@@ -12438,7 +12535,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -12460,7 +12557,7 @@
     </row>
     <row r="43" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="4">
-        <v>3200103</v>
+        <v>3100103</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>27</v>
@@ -12469,7 +12566,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -12491,7 +12588,7 @@
     </row>
     <row r="44" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="4">
-        <v>3200201</v>
+        <v>3100201</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>28</v>
@@ -12500,13 +12597,13 @@
         <v>3</v>
       </c>
       <c r="F44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4">
         <v>2</v>
       </c>
       <c r="H44" s="4">
-        <v>3200101</v>
+        <v>3100101</v>
       </c>
       <c r="I44" s="4">
         <v>0</v>
@@ -12526,7 +12623,7 @@
     </row>
     <row r="45" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="4">
-        <v>3200202</v>
+        <v>3100202</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>31</v>
@@ -12535,13 +12632,13 @@
         <v>3</v>
       </c>
       <c r="F45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4">
         <v>2</v>
       </c>
       <c r="H45" s="4">
-        <v>3200102</v>
+        <v>3100102</v>
       </c>
       <c r="I45" s="4">
         <v>0</v>
@@ -12561,7 +12658,7 @@
     </row>
     <row r="46" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="4">
-        <v>3200203</v>
+        <v>3100203</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>32</v>
@@ -12570,13 +12667,13 @@
         <v>3</v>
       </c>
       <c r="F46" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4">
         <v>2</v>
       </c>
       <c r="H46" s="4">
-        <v>3200103</v>
+        <v>3100103</v>
       </c>
       <c r="I46" s="4">
         <v>0</v>
@@ -12591,6 +12688,208 @@
         <v>29</v>
       </c>
       <c r="M46" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="4">
+        <v>3200101</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>15</v>
+      </c>
+      <c r="K47" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="4">
+        <v>3200102</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>16</v>
+      </c>
+      <c r="K48" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="4">
+        <v>3200103</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>17</v>
+      </c>
+      <c r="K49" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="4">
+        <v>3200201</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>3200101</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>15</v>
+      </c>
+      <c r="K50" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="4">
+        <v>3200202</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>3200102</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>15</v>
+      </c>
+      <c r="K51" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="4">
+        <v>3200203</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4">
+        <v>2</v>
+      </c>
+      <c r="H52" s="4">
+        <v>3200103</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>15</v>
+      </c>
+      <c r="K52" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="10" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089514A2-35DB-41F2-84BC-95295676ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0202A6-6CE1-47B1-A8FD-612CA53D91C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -280,12 +280,56 @@
     <t>天赋4_3</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋5_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋5_2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋5_3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋6_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋6_2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋6_3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋7_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋7_2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋7_3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100503,1100603</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +433,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="23">
@@ -8313,7 +8365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8348,6 +8400,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11282,10 +11340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M52"/>
+  <dimension ref="B1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11396,8 +11454,8 @@
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
+      <c r="H5" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>20</v>
@@ -11777,7 +11835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="4">
         <v>1100402</v>
       </c>
@@ -11812,7 +11870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="4">
         <v>1100403</v>
       </c>
@@ -11847,24 +11905,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4">
-        <v>1200101</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>1100501</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>1100203</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -11876,96 +11934,100 @@
         <v>10001</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4">
-        <v>1200102</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>1100502</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>1100203</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="4">
         <v>10001</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4">
-        <v>1200103</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>1100503</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>1100203</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K21" s="4">
         <v>10001</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="4">
-        <v>1200201</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>1100601</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22" s="4">
-        <v>1200101</v>
+        <v>1100403</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -11983,24 +12045,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="4">
-        <v>1200202</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>1100602</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H23" s="4">
-        <v>1200102</v>
+        <v>1100403</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -12018,24 +12080,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4">
-        <v>1200203</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>1100603</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H24" s="4">
-        <v>1200103</v>
+        <v>1100403</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -12053,40 +12115,94 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
+    <row r="25" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="4">
+        <v>1100701</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>7</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>15</v>
+      </c>
+      <c r="K25" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="27" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="4">
+        <v>1100702</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>7</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>15</v>
+      </c>
+      <c r="K26" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="4">
-        <v>2100101</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
+        <v>1100703</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -12097,25 +12213,25 @@
       <c r="K27" s="4">
         <v>10001</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>24</v>
+      <c r="L27" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="4">
-        <v>2100102</v>
+        <v>1200101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
         <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -12127,26 +12243,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" s="4">
         <v>10001</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
+      <c r="L28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="29" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="4">
-        <v>2100103</v>
+        <v>1200102</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
         <v>2</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -12158,67 +12278,67 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" s="4">
         <v>10001</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="4">
-        <v>2100201</v>
+        <v>1200103</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="4">
-        <v>2</v>
-      </c>
       <c r="H30" s="4">
-        <v>2100101</v>
+        <v>0</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K30" s="4">
         <v>10001</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="L30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="4">
-        <v>2100202</v>
+        <v>1200201</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
         <v>2</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
       </c>
       <c r="H31" s="4">
-        <v>2100102</v>
+        <v>1200101</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
@@ -12229,31 +12349,31 @@
       <c r="K31" s="4">
         <v>10001</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>29</v>
+      <c r="L31" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="M31" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4">
-        <v>2100203</v>
+        <v>1200202</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
         <v>2</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
       </c>
       <c r="G32" s="4">
         <v>2</v>
       </c>
       <c r="H32" s="4">
-        <v>2100103</v>
+        <v>1200102</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -12264,8 +12384,8 @@
       <c r="K32" s="4">
         <v>10001</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>29</v>
+      <c r="L32" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>30</v>
@@ -12273,22 +12393,22 @@
     </row>
     <row r="33" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4">
-        <v>2200101</v>
+        <v>1200203</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
       </c>
       <c r="G33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4">
-        <v>0</v>
+        <v>1200103</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
@@ -12299,93 +12419,47 @@
       <c r="K33" s="4">
         <v>10001</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>24</v>
+      <c r="L33" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="4">
-        <v>2200102</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4">
-        <v>10001</v>
-      </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="4">
-        <v>2200103</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>17</v>
-      </c>
-      <c r="K35" s="4">
-        <v>10001</v>
-      </c>
+      <c r="B35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="4">
-        <v>2200201</v>
+        <v>2100101</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
       </c>
       <c r="F36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>2200101</v>
+        <v>0</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
@@ -12397,116 +12471,162 @@
         <v>10001</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="4">
-        <v>2200202</v>
+        <v>2100102</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
       </c>
       <c r="F37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="4">
-        <v>2200102</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K37" s="4">
         <v>10001</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="4">
-        <v>2200203</v>
+        <v>2100103</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
       </c>
       <c r="F38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4">
-        <v>2200103</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K38" s="4">
         <v>10001</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="4">
+        <v>2100201</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2100101</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>15</v>
+      </c>
+      <c r="K39" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
+      <c r="C40" s="4">
+        <v>2100202</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2100102</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>15</v>
+      </c>
+      <c r="K40" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="4">
-        <v>3100101</v>
+        <v>2100203</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E41" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
       </c>
       <c r="G41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4">
-        <v>0</v>
+        <v>2100103</v>
       </c>
       <c r="I41" s="4">
         <v>0</v>
@@ -12518,24 +12638,24 @@
         <v>10001</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="4">
-        <v>3100102</v>
+        <v>2200101</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -12547,26 +12667,30 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K42" s="4">
         <v>10001</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
+      <c r="L42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="43" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="4">
-        <v>3100103</v>
+        <v>2200102</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -12578,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K43" s="4">
         <v>10001</v>
@@ -12588,57 +12712,53 @@
     </row>
     <row r="44" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="4">
-        <v>3100201</v>
+        <v>2200103</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E44" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="4">
-        <v>2</v>
-      </c>
       <c r="H44" s="4">
-        <v>3100101</v>
+        <v>0</v>
       </c>
       <c r="I44" s="4">
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K44" s="4">
         <v>10001</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
     </row>
     <row r="45" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="4">
-        <v>3100202</v>
+        <v>2200201</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="4">
         <v>2</v>
       </c>
       <c r="H45" s="4">
-        <v>3100102</v>
+        <v>2200101</v>
       </c>
       <c r="I45" s="4">
         <v>0</v>
@@ -12658,22 +12778,22 @@
     </row>
     <row r="46" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="4">
-        <v>3100203</v>
+        <v>2200202</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="4">
         <v>2</v>
       </c>
       <c r="H46" s="4">
-        <v>3100103</v>
+        <v>2200102</v>
       </c>
       <c r="I46" s="4">
         <v>0</v>
@@ -12693,22 +12813,22 @@
     </row>
     <row r="47" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="4">
-        <v>3200101</v>
+        <v>2200203</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E47" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="4">
         <v>2</v>
       </c>
       <c r="G47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="4">
-        <v>0</v>
+        <v>2200103</v>
       </c>
       <c r="I47" s="4">
         <v>0</v>
@@ -12720,92 +12840,46 @@
         <v>10001</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="4">
-        <v>3200102</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="4">
-        <v>3</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>16</v>
-      </c>
-      <c r="K48" s="4">
-        <v>10001</v>
-      </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="10"/>
-    </row>
-    <row r="49" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="4">
-        <v>3200103</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="4">
-        <v>3</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>17</v>
-      </c>
-      <c r="K49" s="4">
-        <v>10001</v>
-      </c>
+    <row r="49" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
       <c r="L49" s="9"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="4">
-        <v>3200201</v>
+        <v>3100101</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E50" s="4">
         <v>3</v>
       </c>
       <c r="F50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4">
-        <v>3200101</v>
+        <v>0</v>
       </c>
       <c r="I50" s="4">
         <v>0</v>
@@ -12817,79 +12891,378 @@
         <v>10001</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="51" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="4">
-        <v>3200202</v>
+        <v>3100102</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E51" s="4">
         <v>3</v>
       </c>
       <c r="F51" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4">
-        <v>3200102</v>
+        <v>0</v>
       </c>
       <c r="I51" s="4">
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K51" s="4">
         <v>10001</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="4">
-        <v>3200203</v>
+        <v>3100103</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E52" s="4">
         <v>3</v>
       </c>
       <c r="F52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4">
-        <v>3200103</v>
+        <v>0</v>
       </c>
       <c r="I52" s="4">
         <v>0</v>
       </c>
       <c r="J52" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K52" s="4">
         <v>10001</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="9"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="4">
+        <v>3100201</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4">
+        <v>3100101</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>15</v>
+      </c>
+      <c r="K53" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L53" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M52" s="10" t="s">
+      <c r="M53" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="4">
+        <v>3100202</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>3100102</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>15</v>
+      </c>
+      <c r="K54" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="4">
+        <v>3100203</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4">
+        <v>3100103</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>15</v>
+      </c>
+      <c r="K55" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="4">
+        <v>3200101</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="4">
+        <v>3</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>15</v>
+      </c>
+      <c r="K56" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="4">
+        <v>3200102</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>16</v>
+      </c>
+      <c r="K57" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L57" s="9"/>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="4">
+        <v>3200103</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="4">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>17</v>
+      </c>
+      <c r="K58" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L58" s="9"/>
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="4">
+        <v>3200201</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="4">
+        <v>3</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4">
+        <v>2</v>
+      </c>
+      <c r="H59" s="4">
+        <v>3200101</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>15</v>
+      </c>
+      <c r="K59" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="4">
+        <v>3200202</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="4">
+        <v>3</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4">
+        <v>2</v>
+      </c>
+      <c r="H60" s="4">
+        <v>3200102</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>15</v>
+      </c>
+      <c r="K60" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="4">
+        <v>3200203</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="4">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4">
+        <v>3200103</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>15</v>
+      </c>
+      <c r="K61" s="4">
+        <v>10001</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="10" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0202A6-6CE1-47B1-A8FD-612CA53D91C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45BD51-BBD6-4FDC-BE92-7F9FAABAC000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -11342,8 +11342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
         <v>15</v>
@@ -11544,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
         <v>16</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4">
         <v>17</v>
@@ -11610,7 +11610,7 @@
         <v>1100303</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
         <v>15</v>
@@ -11645,7 +11645,7 @@
         <v>1100303</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
         <v>15</v>
@@ -11680,7 +11680,7 @@
         <v>1100303</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4">
         <v>15</v>
@@ -11715,7 +11715,7 @@
         <v>1100103</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4">
         <v>15</v>
@@ -11750,7 +11750,7 @@
         <v>1100103</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="4">
         <v>15</v>
@@ -11785,7 +11785,7 @@
         <v>1100103</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
         <v>15</v>
@@ -11820,7 +11820,7 @@
         <v>1100303</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="4">
         <v>15</v>
@@ -11855,7 +11855,7 @@
         <v>1100303</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="4">
         <v>15</v>
@@ -11890,7 +11890,7 @@
         <v>1100303</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4">
         <v>15</v>
@@ -11925,7 +11925,7 @@
         <v>1100203</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4">
         <v>15</v>
@@ -11960,7 +11960,7 @@
         <v>1100203</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
         <v>15</v>
@@ -11995,7 +11995,7 @@
         <v>1100203</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="4">
         <v>15</v>
@@ -12030,7 +12030,7 @@
         <v>1100403</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="4">
         <v>15</v>
@@ -12065,7 +12065,7 @@
         <v>1100403</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
         <v>15</v>
@@ -12100,7 +12100,7 @@
         <v>1100403</v>
       </c>
       <c r="I24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="4">
         <v>15</v>
@@ -12135,7 +12135,7 @@
         <v>62</v>
       </c>
       <c r="I25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
         <v>15</v>
@@ -12170,7 +12170,7 @@
         <v>62</v>
       </c>
       <c r="I26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="4">
         <v>15</v>
@@ -12205,7 +12205,7 @@
         <v>62</v>
       </c>
       <c r="I27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="4">
         <v>15</v>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45BD51-BBD6-4FDC-BE92-7F9FAABAC000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB3C63-DC81-408A-941D-F42D08ABE2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -324,12 +324,36 @@
     <t>1100503,1100603</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>RolePropertyAdd;100902;0.15</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度增加10%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度增加15%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100902;0.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100902;0.20</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度增加20%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +461,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -8365,7 +8396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8407,6 +8438,9 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2603">
@@ -11342,8 +11376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11518,10 +11552,10 @@
         <v>10001</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>25</v>
+        <v>64</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11553,9 +11587,11 @@
         <v>10001</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="4">
@@ -11586,9 +11622,11 @@
         <v>10001</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="4">
@@ -11619,10 +11657,10 @@
         <v>10001</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11654,10 +11692,10 @@
         <v>10001</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11689,10 +11727,10 @@
         <v>10001</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11724,10 +11762,10 @@
         <v>10001</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11759,10 +11797,10 @@
         <v>10001</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11794,10 +11832,10 @@
         <v>10001</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11829,10 +11867,10 @@
         <v>10001</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11864,10 +11902,10 @@
         <v>10001</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11899,10 +11937,10 @@
         <v>10001</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11934,10 +11972,10 @@
         <v>10001</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11969,10 +12007,10 @@
         <v>10001</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12004,10 +12042,10 @@
         <v>10001</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12039,10 +12077,10 @@
         <v>10001</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12074,10 +12112,10 @@
         <v>10001</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12109,10 +12147,10 @@
         <v>10001</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12144,10 +12182,10 @@
         <v>10001</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12179,10 +12217,10 @@
         <v>10001</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12214,10 +12252,10 @@
         <v>10001</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB3C63-DC81-408A-941D-F42D08ABE2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC2A8D-A3A8-429B-85A0-46F61EDF5883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t>移动速度增加20%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;62000001</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11376,8 +11380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12425,9 +12429,7 @@
       <c r="L32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M32" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4">
@@ -12460,9 +12462,7 @@
       <c r="L33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M33" s="10"/>
     </row>
     <row r="35" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
@@ -12643,9 +12643,7 @@
       <c r="L40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M40" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="4">
@@ -12678,9 +12676,7 @@
       <c r="L41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M41" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="4">
@@ -12845,9 +12841,7 @@
       <c r="L46" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M46" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M46" s="10"/>
     </row>
     <row r="47" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="4">
@@ -12880,9 +12874,7 @@
       <c r="L47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M47" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M47" s="10"/>
     </row>
     <row r="49" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
@@ -13063,9 +13055,7 @@
       <c r="L54" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M54" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M54" s="10"/>
     </row>
     <row r="55" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="4">
@@ -13098,9 +13088,7 @@
       <c r="L55" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M55" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M55" s="10"/>
     </row>
     <row r="56" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="4">
@@ -13133,8 +13121,8 @@
       <c r="L56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="10" t="s">
-        <v>25</v>
+      <c r="M56" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13265,9 +13253,7 @@
       <c r="L60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M60" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M60" s="10"/>
     </row>
     <row r="61" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="4">
@@ -13300,9 +13286,7 @@
       <c r="L61" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M61" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="M61" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734E3909-4D3C-4212-BF76-E9946E56D3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75916ED4-63E9-4DF6-8F00-4F944482F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,6 +59,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -65,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,6 +83,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">RolePropertyAdd  增加角色属性
@@ -615,12 +620,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -629,12 +636,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -642,6 +651,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -649,6 +659,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -656,17 +667,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -674,6 +688,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -681,6 +696,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -693,6 +709,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -700,16 +717,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -11677,8 +11697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="J28" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11923,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="16">
         <v>3</v>
@@ -11959,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="16">
         <v>1</v>
@@ -11995,7 +12015,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="16">
         <v>3</v>
@@ -12031,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" s="16">
         <v>3</v>
@@ -12067,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
@@ -12103,7 +12123,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H14" s="16">
         <v>5</v>
@@ -12139,7 +12159,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
@@ -12175,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H16" s="16">
         <v>5</v>
@@ -12211,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
@@ -12247,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H18" s="16">
         <v>5</v>
@@ -12283,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H19" s="16">
         <v>5</v>
@@ -12319,7 +12339,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H20" s="16">
         <v>1</v>
@@ -12355,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H21" s="16">
         <v>5</v>
@@ -12391,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H22" s="16">
         <v>1</v>
@@ -12427,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H23" s="16">
         <v>5</v>
@@ -12463,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H24" s="16">
         <v>1</v>
@@ -12499,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H25" s="16">
         <v>5</v>
@@ -12535,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H26" s="16">
         <v>1</v>
@@ -12571,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H27" s="15">
         <v>5</v>
@@ -12679,7 +12699,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="16">
         <v>3</v>
@@ -12715,7 +12735,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="16">
         <v>1</v>
@@ -12751,7 +12771,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="16">
         <v>3</v>
@@ -12787,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H33" s="16">
         <v>3</v>
@@ -12823,7 +12843,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H34" s="16">
         <v>1</v>
@@ -12859,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H35" s="16">
         <v>5</v>
@@ -12895,7 +12915,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H36" s="16">
         <v>1</v>
@@ -12931,7 +12951,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H37" s="16">
         <v>5</v>
@@ -12967,7 +12987,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H38" s="16">
         <v>1</v>
@@ -13003,7 +13023,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H39" s="16">
         <v>5</v>
@@ -13039,7 +13059,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H40" s="16">
         <v>5</v>
@@ -13075,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H41" s="16">
         <v>1</v>
@@ -13111,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H42" s="16">
         <v>5</v>
@@ -13147,7 +13167,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H43" s="16">
         <v>1</v>
@@ -13183,7 +13203,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H44" s="16">
         <v>5</v>
@@ -13219,7 +13239,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H45" s="16">
         <v>1</v>
@@ -13255,7 +13275,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H46" s="16">
         <v>5</v>
@@ -13291,7 +13311,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H47" s="16">
         <v>1</v>
@@ -13327,7 +13347,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H48" s="15">
         <v>5</v>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC30CE0-CE10-4BDF-B812-8C38062308AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA3D7C-C9BF-4607-9E34-E81F272E9D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,6 +59,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -65,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,6 +83,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">RolePropertyAdd  增加角色属性
@@ -104,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
   <si>
     <t>Id</t>
   </si>
@@ -194,9 +199,6 @@
   </si>
   <si>
     <t>魔焰爆炸</t>
-  </si>
-  <si>
-    <t>魔焰地裂会对目标释放爆裂状态,3秒后对范围内造成200%爆炸伤害</t>
   </si>
   <si>
     <t>前冲</t>
@@ -543,13 +545,188 @@
   <si>
     <t>魔焰地裂会对目标释放爆裂状态,3秒后对范围内造成200%爆炸伤害</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击上升</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冷却</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动减速</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞弹伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗性降低</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击加深</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击之力</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻飞弹</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击加深</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击上升</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御冷却</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能上升</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御反击</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法护盾</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩爆裂</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击永久提升1%/2%/3%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冲击技能冷却时间缩减2秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冲击伤害提升30%/60%/100%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻使目标移动速度降低30%,持续3秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰飞弹伤害提升30%,60%,100%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰飞弹使目标防御和魔御降低10%/20%/30%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次暴击有30%概率对目标附加伤害加深状态,使其受到伤害增加25%,持续3秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提升1%/2%/3%/4%/5%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击有10%概率触发破冰飞弹</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通伤害提升3%/6%/9%/12%/15%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击目标有10%概率提升自身25%伤害,持续3秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御之击伤害提升20%/40%/60%/80%100%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击上限永久提升1%/2%/3%/4%/5%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御之击冷却时间降低1秒,并使目标移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨岩震击有20%/40%/60%/80%/100%概率眩晕目标2秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有10%概率对目标释放圣御之击</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害提升2%/4%/6%/8%/10%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有5%概率给自己释放一个护盾,护盾可以抵抗50%伤害,最大承受生命的30%,持续20秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨岩震击伤害提升20%/40%/60%/80%100%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能熔岩爆裂,对目标造成350%伤害,并使目标眩晕2秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升2%/4%/6%/8%/10%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;200103;0.01#RolePropertyAdd;200103;0.02#RolePropertyAdd;200103;0.03#RolePropertyAdd;200103;0.04#RolePropertyAdd;200103;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110012,1110013,1110014,1110015,1110016;2;0.3#SkillPropertyAdd;1110012,1110013,1110014,1110015,1110016;2;0.6#SkillPropertyAdd;1110012,1110013,1110014,1110015,1110016;2;1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;200303;0.01#RolePropertyAdd;200303;0.02#RolePropertyAdd;200303;0.03#RolePropertyAdd;200303;0.04#RolePropertyAdd;200303;0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,12 +738,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -575,12 +754,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -588,11 +769,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -600,6 +783,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -607,6 +791,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -619,18 +804,21 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -646,6 +834,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -8571,7 +8766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8618,6 +8813,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11554,8 +11755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11782,7 +11983,7 @@
         <v>10001</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -11791,7 +11992,7 @@
         <v>1100202</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -11818,7 +12019,7 @@
         <v>10001</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -11827,7 +12028,7 @@
         <v>1100203</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -11854,7 +12055,7 @@
         <v>10001</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="10"/>
     </row>
@@ -11863,7 +12064,7 @@
         <v>1100301</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -11890,16 +12091,18 @@
         <v>10001</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="4">
         <v>1100302</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -11926,7 +12129,7 @@
         <v>10001</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -11935,7 +12138,7 @@
         <v>1100401</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -11950,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -11962,7 +12165,7 @@
         <v>10001</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -11971,7 +12174,7 @@
         <v>1100402</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -11998,7 +12201,7 @@
         <v>10001</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N14" s="10"/>
     </row>
@@ -12007,7 +12210,7 @@
         <v>1100403</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -12022,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
@@ -12034,7 +12237,7 @@
         <v>10001</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="10"/>
     </row>
@@ -12043,7 +12246,7 @@
         <v>1100404</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -12070,16 +12273,18 @@
         <v>10001</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="17" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="4">
         <v>1100405</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -12106,7 +12311,7 @@
         <v>10001</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17" s="10"/>
     </row>
@@ -12115,7 +12320,7 @@
         <v>1100501</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -12142,7 +12347,7 @@
         <v>10001</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18" s="10"/>
     </row>
@@ -12151,7 +12356,7 @@
         <v>1100502</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -12178,7 +12383,7 @@
         <v>10001</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -12187,7 +12392,7 @@
         <v>1100601</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -12202,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -12214,7 +12419,7 @@
         <v>10001</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N20" s="10"/>
     </row>
@@ -12223,7 +12428,7 @@
         <v>1100602</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -12250,16 +12455,18 @@
         <v>10001</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="22" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="4">
         <v>1100603</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -12286,7 +12493,7 @@
         <v>10001</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N22" s="10"/>
     </row>
@@ -12295,7 +12502,7 @@
         <v>1100604</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -12322,7 +12529,7 @@
         <v>10001</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N23" s="10"/>
     </row>
@@ -12331,7 +12538,7 @@
         <v>1100605</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -12358,7 +12565,7 @@
         <v>10001</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N24" s="10"/>
     </row>
@@ -12367,7 +12574,7 @@
         <v>1100701</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -12394,7 +12601,7 @@
         <v>10001</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -12403,7 +12610,7 @@
         <v>1100702</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -12418,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
@@ -12430,7 +12637,7 @@
         <v>10001</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N26" s="10"/>
     </row>
@@ -12439,7 +12646,7 @@
         <v>1100703</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -12454,7 +12661,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
@@ -12466,7 +12673,7 @@
         <v>10001</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N27" s="10"/>
     </row>
@@ -12475,7 +12682,7 @@
         <v>1200101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -12502,7 +12709,7 @@
         <v>10001</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N28" s="10"/>
     </row>
@@ -12511,7 +12718,7 @@
         <v>1200201</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -12538,7 +12745,7 @@
         <v>10001</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N29" s="10"/>
     </row>
@@ -12547,7 +12754,7 @@
         <v>1200202</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -12574,7 +12781,7 @@
         <v>10001</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N30" s="10"/>
     </row>
@@ -12583,7 +12790,7 @@
         <v>1200203</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -12610,7 +12817,7 @@
         <v>10001</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -12619,7 +12826,7 @@
         <v>1200301</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -12646,7 +12853,7 @@
         <v>10001</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -12655,7 +12862,7 @@
         <v>1200302</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -12682,7 +12889,7 @@
         <v>10001</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N33" s="10"/>
     </row>
@@ -12691,7 +12898,7 @@
         <v>1200401</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -12706,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -12718,7 +12925,7 @@
         <v>10001</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -12727,7 +12934,7 @@
         <v>1200402</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -12754,7 +12961,7 @@
         <v>10001</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -12763,7 +12970,7 @@
         <v>1200403</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -12778,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
@@ -12790,7 +12997,7 @@
         <v>10001</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="10"/>
     </row>
@@ -12799,7 +13006,7 @@
         <v>1200404</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -12826,7 +13033,7 @@
         <v>10001</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -12835,7 +13042,7 @@
         <v>1200405</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -12862,7 +13069,7 @@
         <v>10001</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N38" s="10"/>
     </row>
@@ -12871,7 +13078,7 @@
         <v>1200501</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -12898,7 +13105,7 @@
         <v>10001</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -12907,7 +13114,7 @@
         <v>1200502</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -12934,7 +13141,7 @@
         <v>10001</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -12943,7 +13150,7 @@
         <v>1200601</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -12958,7 +13165,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
@@ -12970,7 +13177,7 @@
         <v>10001</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N41" s="10"/>
     </row>
@@ -12979,7 +13186,7 @@
         <v>1200602</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -13006,7 +13213,7 @@
         <v>10001</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N42" s="10"/>
     </row>
@@ -13015,7 +13222,7 @@
         <v>1200603</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -13042,7 +13249,7 @@
         <v>10001</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N43" s="10"/>
     </row>
@@ -13051,7 +13258,7 @@
         <v>1200604</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -13078,7 +13285,7 @@
         <v>10001</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -13087,7 +13294,7 @@
         <v>1200605</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -13114,7 +13321,7 @@
         <v>10001</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -13123,7 +13330,7 @@
         <v>1200701</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -13150,7 +13357,7 @@
         <v>10001</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N46" s="10"/>
     </row>
@@ -13159,7 +13366,7 @@
         <v>1200702</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
@@ -13174,7 +13381,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
@@ -13186,7 +13393,7 @@
         <v>10001</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N47" s="10"/>
     </row>
@@ -13195,7 +13402,7 @@
         <v>1200703</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -13210,7 +13417,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J48" s="4">
         <v>1</v>
@@ -13222,13 +13429,13 @@
         <v>10001</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -13248,7 +13455,7 @@
         <v>2100101</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
@@ -13274,8 +13481,8 @@
       <c r="L50" s="4">
         <v>10001</v>
       </c>
-      <c r="M50" s="11" t="s">
-        <v>27</v>
+      <c r="M50" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>28</v>
@@ -13285,8 +13492,8 @@
       <c r="C51" s="4">
         <v>2100201</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>29</v>
+      <c r="D51" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -13312,8 +13519,8 @@
       <c r="L51" s="4">
         <v>10001</v>
       </c>
-      <c r="M51" s="11" t="s">
-        <v>30</v>
+      <c r="M51" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="N51" s="10"/>
     </row>
@@ -13321,8 +13528,8 @@
       <c r="C52" s="4">
         <v>2100202</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>31</v>
+      <c r="D52" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -13348,8 +13555,8 @@
       <c r="L52" s="4">
         <v>10001</v>
       </c>
-      <c r="M52" s="11" t="s">
-        <v>32</v>
+      <c r="M52" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="N52" s="10"/>
     </row>
@@ -13357,8 +13564,8 @@
       <c r="C53" s="4">
         <v>2100203</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>33</v>
+      <c r="D53" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -13384,8 +13591,8 @@
       <c r="L53" s="4">
         <v>10001</v>
       </c>
-      <c r="M53" s="11" t="s">
-        <v>34</v>
+      <c r="M53" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="N53" s="10"/>
     </row>
@@ -13393,8 +13600,8 @@
       <c r="C54" s="4">
         <v>2100301</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>35</v>
+      <c r="D54" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
@@ -13420,8 +13627,8 @@
       <c r="L54" s="4">
         <v>10001</v>
       </c>
-      <c r="M54" s="11" t="s">
-        <v>36</v>
+      <c r="M54" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="N54" s="10"/>
     </row>
@@ -13429,8 +13636,8 @@
       <c r="C55" s="4">
         <v>2100302</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>37</v>
+      <c r="D55" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -13456,8 +13663,8 @@
       <c r="L55" s="4">
         <v>10001</v>
       </c>
-      <c r="M55" s="11" t="s">
-        <v>38</v>
+      <c r="M55" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="N55" s="10"/>
     </row>
@@ -13465,8 +13672,8 @@
       <c r="C56" s="4">
         <v>2100401</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>39</v>
+      <c r="D56" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
@@ -13481,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J56" s="4">
         <v>1</v>
@@ -13492,8 +13699,8 @@
       <c r="L56" s="4">
         <v>10001</v>
       </c>
-      <c r="M56" s="11" t="s">
-        <v>41</v>
+      <c r="M56" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="N56" s="10"/>
     </row>
@@ -13501,8 +13708,8 @@
       <c r="C57" s="4">
         <v>2100402</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>42</v>
+      <c r="D57" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -13528,8 +13735,8 @@
       <c r="L57" s="4">
         <v>10001</v>
       </c>
-      <c r="M57" s="11" t="s">
-        <v>43</v>
+      <c r="M57" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="N57" s="10"/>
     </row>
@@ -13537,8 +13744,8 @@
       <c r="C58" s="4">
         <v>2100403</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>44</v>
+      <c r="D58" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -13553,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
@@ -13564,8 +13771,8 @@
       <c r="L58" s="4">
         <v>10001</v>
       </c>
-      <c r="M58" s="11" t="s">
-        <v>46</v>
+      <c r="M58" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="N58" s="10"/>
     </row>
@@ -13573,8 +13780,8 @@
       <c r="C59" s="4">
         <v>2100404</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>47</v>
+      <c r="D59" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -13600,8 +13807,8 @@
       <c r="L59" s="4">
         <v>10001</v>
       </c>
-      <c r="M59" s="11" t="s">
-        <v>48</v>
+      <c r="M59" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="N59" s="10"/>
     </row>
@@ -13609,8 +13816,8 @@
       <c r="C60" s="4">
         <v>2100405</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>49</v>
+      <c r="D60" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -13636,8 +13843,8 @@
       <c r="L60" s="4">
         <v>10001</v>
       </c>
-      <c r="M60" s="11" t="s">
-        <v>50</v>
+      <c r="M60" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="N60" s="10"/>
     </row>
@@ -13645,8 +13852,8 @@
       <c r="C61" s="4">
         <v>2100501</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>51</v>
+      <c r="D61" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
@@ -13672,8 +13879,8 @@
       <c r="L61" s="4">
         <v>10001</v>
       </c>
-      <c r="M61" s="11" t="s">
-        <v>52</v>
+      <c r="M61" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="N61" s="10"/>
     </row>
@@ -13681,8 +13888,8 @@
       <c r="C62" s="4">
         <v>2100502</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>53</v>
+      <c r="D62" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
@@ -13708,17 +13915,19 @@
       <c r="L62" s="4">
         <v>10001</v>
       </c>
-      <c r="M62" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N62" s="10"/>
+      <c r="M62" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="63" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="4">
         <v>2100601</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>55</v>
+      <c r="D63" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -13733,7 +13942,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J63" s="4">
         <v>1</v>
@@ -13744,8 +13953,8 @@
       <c r="L63" s="4">
         <v>10001</v>
       </c>
-      <c r="M63" s="11" t="s">
-        <v>57</v>
+      <c r="M63" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="N63" s="10"/>
     </row>
@@ -13753,8 +13962,8 @@
       <c r="C64" s="4">
         <v>2100602</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>58</v>
+      <c r="D64" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -13780,8 +13989,8 @@
       <c r="L64" s="4">
         <v>10001</v>
       </c>
-      <c r="M64" s="11" t="s">
-        <v>59</v>
+      <c r="M64" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -13789,8 +13998,8 @@
       <c r="C65" s="4">
         <v>2100603</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>60</v>
+      <c r="D65" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
@@ -13816,8 +14025,8 @@
       <c r="L65" s="4">
         <v>10001</v>
       </c>
-      <c r="M65" s="11" t="s">
-        <v>61</v>
+      <c r="M65" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="N65" s="10"/>
     </row>
@@ -13825,8 +14034,8 @@
       <c r="C66" s="4">
         <v>2100604</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>62</v>
+      <c r="D66" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -13852,8 +14061,8 @@
       <c r="L66" s="4">
         <v>10001</v>
       </c>
-      <c r="M66" s="11" t="s">
-        <v>63</v>
+      <c r="M66" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="N66" s="10"/>
     </row>
@@ -13861,8 +14070,8 @@
       <c r="C67" s="4">
         <v>2100605</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>64</v>
+      <c r="D67" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="E67" s="4">
         <v>1</v>
@@ -13888,8 +14097,8 @@
       <c r="L67" s="4">
         <v>10001</v>
       </c>
-      <c r="M67" s="11" t="s">
-        <v>65</v>
+      <c r="M67" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="N67" s="10"/>
     </row>
@@ -13897,8 +14106,8 @@
       <c r="C68" s="4">
         <v>2100701</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>66</v>
+      <c r="D68" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="E68" s="4">
         <v>1</v>
@@ -13924,8 +14133,8 @@
       <c r="L68" s="4">
         <v>10001</v>
       </c>
-      <c r="M68" s="11" t="s">
-        <v>67</v>
+      <c r="M68" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="N68" s="10"/>
     </row>
@@ -13933,8 +14142,8 @@
       <c r="C69" s="4">
         <v>2100702</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>68</v>
+      <c r="D69" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -13949,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J69" s="4">
         <v>1</v>
@@ -13960,8 +14169,8 @@
       <c r="L69" s="4">
         <v>10001</v>
       </c>
-      <c r="M69" s="11" t="s">
-        <v>70</v>
+      <c r="M69" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="N69" s="10"/>
     </row>
@@ -13969,8 +14178,8 @@
       <c r="C70" s="4">
         <v>2100703</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>71</v>
+      <c r="D70" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="E70" s="4">
         <v>1</v>
@@ -13985,7 +14194,7 @@
         <v>5</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J70" s="4">
         <v>1</v>
@@ -13996,8 +14205,8 @@
       <c r="L70" s="4">
         <v>10001</v>
       </c>
-      <c r="M70" s="11" t="s">
-        <v>73</v>
+      <c r="M70" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="N70" s="10"/>
     </row>
@@ -14006,7 +14215,7 @@
         <v>2200101</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -14032,8 +14241,8 @@
       <c r="L71" s="4">
         <v>10001</v>
       </c>
-      <c r="M71" s="11" t="s">
-        <v>75</v>
+      <c r="M71" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="N71" s="10"/>
     </row>
@@ -14041,8 +14250,8 @@
       <c r="C72" s="4">
         <v>2200201</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>76</v>
+      <c r="D72" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="E72" s="4">
         <v>1</v>
@@ -14068,8 +14277,8 @@
       <c r="L72" s="4">
         <v>10001</v>
       </c>
-      <c r="M72" s="11" t="s">
-        <v>77</v>
+      <c r="M72" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -14077,8 +14286,8 @@
       <c r="C73" s="4">
         <v>2200202</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>78</v>
+      <c r="D73" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -14104,8 +14313,8 @@
       <c r="L73" s="4">
         <v>10001</v>
       </c>
-      <c r="M73" s="13" t="s">
-        <v>79</v>
+      <c r="M73" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="N73" s="10"/>
     </row>
@@ -14113,8 +14322,8 @@
       <c r="C74" s="4">
         <v>2200203</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>80</v>
+      <c r="D74" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="E74" s="4">
         <v>1</v>
@@ -14140,8 +14349,8 @@
       <c r="L74" s="4">
         <v>10001</v>
       </c>
-      <c r="M74" s="11" t="s">
-        <v>81</v>
+      <c r="M74" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="N74" s="10"/>
     </row>
@@ -14149,8 +14358,8 @@
       <c r="C75" s="4">
         <v>2200301</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>82</v>
+      <c r="D75" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -14176,8 +14385,8 @@
       <c r="L75" s="4">
         <v>10001</v>
       </c>
-      <c r="M75" s="11" t="s">
-        <v>83</v>
+      <c r="M75" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="N75" s="10"/>
     </row>
@@ -14185,8 +14394,8 @@
       <c r="C76" s="4">
         <v>2200302</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>84</v>
+      <c r="D76" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
@@ -14212,8 +14421,8 @@
       <c r="L76" s="4">
         <v>10001</v>
       </c>
-      <c r="M76" s="11" t="s">
-        <v>85</v>
+      <c r="M76" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="N76" s="10"/>
     </row>
@@ -14221,8 +14430,8 @@
       <c r="C77" s="4">
         <v>2200401</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>86</v>
+      <c r="D77" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
@@ -14237,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J77" s="4">
         <v>1</v>
@@ -14248,8 +14457,8 @@
       <c r="L77" s="4">
         <v>10001</v>
       </c>
-      <c r="M77" s="11" t="s">
-        <v>88</v>
+      <c r="M77" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="N77" s="10"/>
     </row>
@@ -14257,8 +14466,8 @@
       <c r="C78" s="4">
         <v>2200402</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>89</v>
+      <c r="D78" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="E78" s="4">
         <v>1</v>
@@ -14284,8 +14493,8 @@
       <c r="L78" s="4">
         <v>10001</v>
       </c>
-      <c r="M78" s="11" t="s">
-        <v>90</v>
+      <c r="M78" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="N78" s="10"/>
     </row>
@@ -14293,8 +14502,8 @@
       <c r="C79" s="4">
         <v>2200403</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>91</v>
+      <c r="D79" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="E79" s="4">
         <v>1</v>
@@ -14309,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J79" s="4">
         <v>1</v>
@@ -14320,8 +14529,8 @@
       <c r="L79" s="4">
         <v>10001</v>
       </c>
-      <c r="M79" s="11" t="s">
-        <v>93</v>
+      <c r="M79" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="N79" s="10"/>
     </row>
@@ -14329,8 +14538,8 @@
       <c r="C80" s="4">
         <v>2200404</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>94</v>
+      <c r="D80" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
@@ -14356,8 +14565,8 @@
       <c r="L80" s="4">
         <v>10001</v>
       </c>
-      <c r="M80" s="11" t="s">
-        <v>95</v>
+      <c r="M80" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="N80" s="10"/>
     </row>
@@ -14365,8 +14574,8 @@
       <c r="C81" s="4">
         <v>2200405</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>96</v>
+      <c r="D81" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
@@ -14392,8 +14601,8 @@
       <c r="L81" s="4">
         <v>10001</v>
       </c>
-      <c r="M81" s="11" t="s">
-        <v>97</v>
+      <c r="M81" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="N81" s="10"/>
     </row>
@@ -14401,8 +14610,8 @@
       <c r="C82" s="4">
         <v>2200501</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>98</v>
+      <c r="D82" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="E82" s="4">
         <v>1</v>
@@ -14428,8 +14637,8 @@
       <c r="L82" s="4">
         <v>10001</v>
       </c>
-      <c r="M82" s="11" t="s">
-        <v>99</v>
+      <c r="M82" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="N82" s="10"/>
     </row>
@@ -14437,8 +14646,8 @@
       <c r="C83" s="4">
         <v>2200502</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>100</v>
+      <c r="D83" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
@@ -14464,8 +14673,8 @@
       <c r="L83" s="4">
         <v>10001</v>
       </c>
-      <c r="M83" s="11" t="s">
-        <v>101</v>
+      <c r="M83" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -14473,8 +14682,8 @@
       <c r="C84" s="4">
         <v>2200601</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>102</v>
+      <c r="D84" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="E84" s="4">
         <v>1</v>
@@ -14489,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
@@ -14500,8 +14709,8 @@
       <c r="L84" s="4">
         <v>10001</v>
       </c>
-      <c r="M84" s="11" t="s">
-        <v>104</v>
+      <c r="M84" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="N84" s="10"/>
     </row>
@@ -14509,8 +14718,8 @@
       <c r="C85" s="4">
         <v>2200602</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>105</v>
+      <c r="D85" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="E85" s="4">
         <v>1</v>
@@ -14536,8 +14745,8 @@
       <c r="L85" s="4">
         <v>10001</v>
       </c>
-      <c r="M85" s="11" t="s">
-        <v>106</v>
+      <c r="M85" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="N85" s="10"/>
     </row>
@@ -14545,8 +14754,8 @@
       <c r="C86" s="4">
         <v>2200603</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>107</v>
+      <c r="D86" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -14572,8 +14781,8 @@
       <c r="L86" s="4">
         <v>10001</v>
       </c>
-      <c r="M86" s="11" t="s">
-        <v>108</v>
+      <c r="M86" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="N86" s="10"/>
     </row>
@@ -14581,8 +14790,8 @@
       <c r="C87" s="4">
         <v>2200604</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>109</v>
+      <c r="D87" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
@@ -14608,8 +14817,8 @@
       <c r="L87" s="4">
         <v>10001</v>
       </c>
-      <c r="M87" s="11" t="s">
-        <v>110</v>
+      <c r="M87" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="N87" s="10"/>
     </row>
@@ -14617,8 +14826,8 @@
       <c r="C88" s="4">
         <v>2200605</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>111</v>
+      <c r="D88" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
@@ -14644,8 +14853,8 @@
       <c r="L88" s="4">
         <v>10001</v>
       </c>
-      <c r="M88" s="11" t="s">
-        <v>112</v>
+      <c r="M88" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="N88" s="10"/>
     </row>
@@ -14653,8 +14862,8 @@
       <c r="C89" s="4">
         <v>2200701</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>113</v>
+      <c r="D89" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="E89" s="4">
         <v>1</v>
@@ -14680,8 +14889,8 @@
       <c r="L89" s="4">
         <v>10001</v>
       </c>
-      <c r="M89" s="11" t="s">
-        <v>114</v>
+      <c r="M89" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="N89" s="10"/>
     </row>
@@ -14689,8 +14898,8 @@
       <c r="C90" s="4">
         <v>2200702</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>115</v>
+      <c r="D90" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="E90" s="4">
         <v>1</v>
@@ -14705,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
@@ -14716,8 +14925,8 @@
       <c r="L90" s="4">
         <v>10001</v>
       </c>
-      <c r="M90" s="11" t="s">
-        <v>117</v>
+      <c r="M90" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="N90" s="10"/>
     </row>
@@ -14725,8 +14934,8 @@
       <c r="C91" s="4">
         <v>2200703</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>118</v>
+      <c r="D91" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -14741,7 +14950,7 @@
         <v>5</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J91" s="4">
         <v>1</v>
@@ -14752,15 +14961,15 @@
       <c r="L91" s="4">
         <v>10001</v>
       </c>
-      <c r="M91" s="11" t="s">
-        <v>120</v>
+      <c r="M91" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -14780,7 +14989,7 @@
         <v>3100101</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" s="4">
         <v>3</v>
@@ -14805,10 +15014,10 @@
         <v>10001</v>
       </c>
       <c r="M94" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N94" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="N94" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="95" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14816,7 +15025,7 @@
         <v>3100102</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E95" s="4">
         <v>3</v>
@@ -14848,7 +15057,7 @@
         <v>3100103</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E96" s="4">
         <v>3</v>
@@ -14880,7 +15089,7 @@
         <v>3100201</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E97" s="4">
         <v>3</v>
@@ -14893,7 +15102,7 @@
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -14905,10 +15114,10 @@
         <v>10001</v>
       </c>
       <c r="M97" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="N97" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="N97" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="98" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14916,7 +15125,7 @@
         <v>3100202</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E98" s="4">
         <v>3</v>
@@ -14929,7 +15138,7 @@
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
@@ -14941,7 +15150,7 @@
         <v>10001</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N98" s="10"/>
     </row>
@@ -14950,7 +15159,7 @@
         <v>3100203</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E99" s="4">
         <v>3</v>
@@ -14963,7 +15172,7 @@
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
@@ -14975,7 +15184,7 @@
         <v>10001</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N99" s="10"/>
     </row>
@@ -14984,7 +15193,7 @@
         <v>3200101</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E100" s="4">
         <v>3</v>
@@ -15009,10 +15218,10 @@
         <v>10001</v>
       </c>
       <c r="M100" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N100" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="N100" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="101" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15020,7 +15229,7 @@
         <v>3200102</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15052,7 +15261,7 @@
         <v>3200103</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E102" s="4">
         <v>3</v>
@@ -15084,7 +15293,7 @@
         <v>3200201</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E103" s="4">
         <v>3</v>
@@ -15097,7 +15306,7 @@
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J103" s="4">
         <v>0</v>
@@ -15109,10 +15318,10 @@
         <v>10001</v>
       </c>
       <c r="M103" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="N103" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="N103" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="104" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15120,7 +15329,7 @@
         <v>3200202</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E104" s="4">
         <v>3</v>
@@ -15133,7 +15342,7 @@
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J104" s="4">
         <v>0</v>
@@ -15145,7 +15354,7 @@
         <v>10001</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N104" s="10"/>
     </row>
@@ -15154,7 +15363,7 @@
         <v>3200203</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -15167,7 +15376,7 @@
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J105" s="4">
         <v>0</v>
@@ -15179,7 +15388,7 @@
         <v>10001</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N105" s="10"/>
     </row>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA3D7C-C9BF-4607-9E34-E81F272E9D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB88B44-ED2D-43A1-A195-0E2959E89FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="229">
   <si>
     <t>Id</t>
   </si>
@@ -207,12 +207,6 @@
     <t>前冲距离延长2码/4码/6码距离</t>
   </si>
   <si>
-    <t>魔焰伤害</t>
-  </si>
-  <si>
-    <t>魔焰地裂会使用目标受到伤害提升10%,持续5秒</t>
-  </si>
-  <si>
     <t>幻影伤害</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>魔焰缓速</t>
   </si>
   <si>
-    <t>魔焰地裂使目标移动速度降低20%/40%/60%，持续5秒</t>
-  </si>
-  <si>
     <t>旋舞之速</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
     <t>绝地希望</t>
   </si>
   <si>
-    <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，120秒冷却时间</t>
-  </si>
-  <si>
     <t>旋舞伤害</t>
   </si>
   <si>
@@ -291,9 +279,6 @@
     <t>反击</t>
   </si>
   <si>
-    <t>受到攻击有10%概率对目标造成150%</t>
-  </si>
-  <si>
     <t>冷却降低</t>
   </si>
   <si>
@@ -316,9 +301,6 @@
   </si>
   <si>
     <t>1100604</t>
-  </si>
-  <si>
-    <t>释放技能有一定概率不进入冷却时间</t>
   </si>
   <si>
     <t>普攻伤害</t>
@@ -719,7 +701,192 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>魔焰地裂会使用目标受到伤害提升10%,持续5秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110002,1110003,1110004,1110005,1110006;6;11100010</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110002,1110003,1110004,1110005,1110006;6;11100011</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂使目标移动速度降低30%/45%/60%，持续3秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110002,1110003,1110004,1110005,1110006;6;11100012#SkillPropertyAdd;1110002,1110003,1110004,1110005,1110006;6;11100013#SkillPropertyAdd;1110002,1110003,1110004,1110005,1110006;6;11100014</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110022,1110023,1110024,1110025,1110026;6;11100010</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;1301002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，60秒冷却时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;1301003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110022,1110023,1110024,1110025,1110026;2;0.08#SkillPropertyAdd;1110022,1110023,1110024,1110025,1110026;2;0.16#SkillPropertyAdd;1110022,1110023,1110024,1110025,1110026;2;0.24#SkillPropertyAdd;1110022,1110023,1110024,1110025,1110026;2;0.32#SkillPropertyAdd;1110022,1110023,1110024,1110025,1110026;2;0.4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;1301006#SkillIdAdd;1301007#SkillIdAdd;1301008#SkillIdAdd;1301009#SkillIdAdd;1301010</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;223103;0.02#RolePropertyAdd;223103;0.04#RolePropertyAdd;223103;0.06#RolePropertyAdd;223103;0.08#RolePropertyAdd;223103;0.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到技能攻击有10%概率对目标造成对等伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>RolePropertyAdd;200303;0.01#RolePropertyAdd;200303;0.02#RolePropertyAdd;200303;0.03#RolePropertyAdd;200303;0.04#RolePropertyAdd;200303;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;205603;0.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;203603;0.01#RolePropertyAdd;203603;0.02#RolePropertyAdd;203603;0.03#RolePropertyAdd;203603;0.04#RolePropertyAdd;203603;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110012,1110013,1110014,1110015,1110016;4;2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110032,1110033,1110034,1110035,1110036;4;2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1110032,1110033,1110034,1110035,1110036;2;0.2#SkillPropertyAdd;1110032,1110033,1110034,1110035,1110036;2;0.4#SkillPropertyAdd;1110032,1110033,1110034,1110035,1110036;2;0.6#SkillPropertyAdd;1110032,1110033,1110034,1110035,1110036;2;0.8#SkillPropertyAdd;1110032,1110033,1110034,1110035,1110036;2;1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1200001,1200002,1200003;2;0.08#SkillPropertyAdd;1200001,1200002,1200003;2;0.16#SkillPropertyAdd;1200001,1200002,1200003;2;0.24#SkillPropertyAdd;1200001,1200002,1200003;2;0.32#SkillPropertyAdd;1200001,1200002,1200003;2;0.4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能有10%概率不进入冷却时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;204003;0.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1120002,1120003,1120004,1120005,1120006;4;2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1120002,1120003,1120004,1120005,1120006;2;0.3#SkillPropertyAdd;1120002,1120003,1120004,1120005,1120006;2;0.6#SkillPropertyAdd;1120002,1120003,1120004,1120005,1120006;2;1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1200101,1200102;6;1000001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;2;0.3#SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;2;0.6#SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;2;1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰飞弹使目标受到伤害增加10%/20%/30%</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;6;11200110#SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;6;11200111#SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;6;11200112</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;1302001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;202103;0.01#RolePropertyAdd;202103;0.02#RolePropertyAdd;202103;0.03#RolePropertyAdd;202103;0.04#RolePropertyAdd;202103;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1200101,1200102;2;0.03#SkillPropertyAdd;1200101,1200102;2;0.06#SkillPropertyAdd;1200101,1200102;2;0.09#SkillPropertyAdd;1200101,1200102;2;0.12#SkillPropertyAdd;1200101,1200102;2;0.15</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1120022,1120023,1120024,1120025,1120026;2;0.2#SkillPropertyAdd;1120022,1120023,1120024,1120025,1120026;2;0.4#SkillPropertyAdd;1120022,1120023,1120024,1120025,1120026;2;0.6#SkillPropertyAdd;1120022,1120023,1120024,1120025,1120026;2;0.8#SkillPropertyAdd;1120022,1120023,1120024,1120025,1120026;2;1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1200101,1200102;6;12001010</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;1302003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100402;0.01#RolePropertyAdd;100402;0.02#RolePropertyAdd;100402;0.03</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100902;0.02#RolePropertyAdd;100902;0.04#RolePropertyAdd;100902;0.06#RolePropertyAdd;100902;0.08#RolePropertyAdd;100902;0.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1120032,1120033,1120034,1120035,1120036;2;0.2#SkillPropertyAdd;1120032,1120033,1120034,1120035,1120036;2;0.4#SkillPropertyAdd;1120032,1120033,1120034,1120035,1120036;2;0.6#SkillPropertyAdd;1120032,1120033,1120034,1120035,1120036;2;0.8#SkillPropertyAdd;1120032,1120033,1120034,1120035,1120036;2;1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御之击冷却时间降低1秒</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;1120022,1120023,1120024,1120025,1120026;4;1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;1302004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdAdd;1302005</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能有5%概率不触发任何冷却时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;204003;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能有1%/2%/3%/4%/5%概率造成双倍伤害</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePropertyAdd;204103;0.01#RolePropertyAdd;204103;0.02#RolePropertyAdd;204103;0.03#RolePropertyAdd;204103;0.04#RolePropertyAdd;204103;0.05</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限冷却</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8766,7 +8933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8811,9 +8978,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11755,8 +11919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11982,10 +12146,12 @@
       <c r="L8" s="4">
         <v>10001</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="10"/>
+      <c r="M8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="9" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="4">
@@ -12028,7 +12194,7 @@
         <v>1100203</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -12055,16 +12221,18 @@
         <v>10001</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="10"/>
+        <v>182</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="11" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="4">
         <v>1100301</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -12091,10 +12259,10 @@
         <v>10001</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12102,7 +12270,7 @@
         <v>1100302</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -12129,16 +12297,18 @@
         <v>10001</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="10"/>
+        <v>186</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="13" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4">
         <v>1100401</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -12153,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -12165,16 +12335,18 @@
         <v>10001</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="14" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4">
         <v>1100402</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -12201,16 +12373,18 @@
         <v>10001</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="15" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4">
         <v>1100403</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -12225,7 +12399,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
@@ -12237,16 +12411,18 @@
         <v>10001</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="16" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="4">
         <v>1100404</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -12273,10 +12449,10 @@
         <v>10001</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12284,7 +12460,7 @@
         <v>1100405</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -12311,16 +12487,18 @@
         <v>10001</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="10"/>
+        <v>190</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="18" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="4">
         <v>1100501</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -12347,16 +12525,18 @@
         <v>10001</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="19" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4">
         <v>1100502</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -12383,16 +12563,18 @@
         <v>10001</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4">
         <v>1100601</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -12407,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -12419,16 +12601,18 @@
         <v>10001</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="21" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4">
         <v>1100602</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -12455,10 +12639,10 @@
         <v>10001</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12466,7 +12650,7 @@
         <v>1100603</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -12493,16 +12677,18 @@
         <v>10001</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="10"/>
+        <v>195</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="23" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="4">
         <v>1100604</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -12529,16 +12715,18 @@
         <v>10001</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="24" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4">
         <v>1100605</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -12565,16 +12753,18 @@
         <v>10001</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="25" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="4">
         <v>1100701</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -12601,16 +12791,18 @@
         <v>10001</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="26" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="4">
         <v>1100702</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -12625,7 +12817,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
@@ -12637,16 +12829,18 @@
         <v>10001</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="10"/>
+        <v>203</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="27" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="4">
         <v>1100703</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -12661,7 +12855,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
@@ -12673,16 +12867,18 @@
         <v>10001</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="28" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="4">
         <v>1200101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -12709,7 +12905,7 @@
         <v>10001</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N28" s="10"/>
     </row>
@@ -12718,7 +12914,7 @@
         <v>1200201</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -12745,7 +12941,7 @@
         <v>10001</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N29" s="10"/>
     </row>
@@ -12754,7 +12950,7 @@
         <v>1200202</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -12781,7 +12977,7 @@
         <v>10001</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N30" s="10"/>
     </row>
@@ -12790,7 +12986,7 @@
         <v>1200203</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -12817,7 +13013,7 @@
         <v>10001</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -12826,7 +13022,7 @@
         <v>1200301</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -12853,7 +13049,7 @@
         <v>10001</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -12862,7 +13058,7 @@
         <v>1200302</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -12889,7 +13085,7 @@
         <v>10001</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N33" s="10"/>
     </row>
@@ -12898,7 +13094,7 @@
         <v>1200401</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -12913,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -12925,7 +13121,7 @@
         <v>10001</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -12934,7 +13130,7 @@
         <v>1200402</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -12961,7 +13157,7 @@
         <v>10001</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -12970,7 +13166,7 @@
         <v>1200403</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -12985,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
@@ -12997,7 +13193,7 @@
         <v>10001</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N36" s="10"/>
     </row>
@@ -13006,7 +13202,7 @@
         <v>1200404</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -13033,7 +13229,7 @@
         <v>10001</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -13042,7 +13238,7 @@
         <v>1200405</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -13069,7 +13265,7 @@
         <v>10001</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N38" s="10"/>
     </row>
@@ -13078,7 +13274,7 @@
         <v>1200501</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -13105,7 +13301,7 @@
         <v>10001</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -13114,7 +13310,7 @@
         <v>1200502</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -13141,7 +13337,7 @@
         <v>10001</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -13150,7 +13346,7 @@
         <v>1200601</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -13165,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
@@ -13177,7 +13373,7 @@
         <v>10001</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N41" s="10"/>
     </row>
@@ -13186,7 +13382,7 @@
         <v>1200602</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -13213,7 +13409,7 @@
         <v>10001</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N42" s="10"/>
     </row>
@@ -13222,7 +13418,7 @@
         <v>1200603</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -13249,7 +13445,7 @@
         <v>10001</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N43" s="10"/>
     </row>
@@ -13258,7 +13454,7 @@
         <v>1200604</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -13285,7 +13481,7 @@
         <v>10001</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -13294,7 +13490,7 @@
         <v>1200605</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -13321,7 +13517,7 @@
         <v>10001</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -13330,7 +13526,7 @@
         <v>1200701</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -13357,7 +13553,7 @@
         <v>10001</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N46" s="10"/>
     </row>
@@ -13366,7 +13562,7 @@
         <v>1200702</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
@@ -13381,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
@@ -13393,7 +13589,7 @@
         <v>10001</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N47" s="10"/>
     </row>
@@ -13402,7 +13598,7 @@
         <v>1200703</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -13417,7 +13613,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J48" s="4">
         <v>1</v>
@@ -13429,13 +13625,13 @@
         <v>10001</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -13455,7 +13651,7 @@
         <v>2100101</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
@@ -13481,19 +13677,19 @@
       <c r="L50" s="4">
         <v>10001</v>
       </c>
-      <c r="M50" s="19" t="s">
-        <v>165</v>
+      <c r="M50" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="4">
         <v>2100201</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>146</v>
+      <c r="D51" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -13519,17 +13715,19 @@
       <c r="L51" s="4">
         <v>10001</v>
       </c>
-      <c r="M51" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="N51" s="10"/>
+      <c r="M51" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="52" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="4">
         <v>2100202</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>147</v>
+      <c r="D52" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -13555,17 +13753,19 @@
       <c r="L52" s="4">
         <v>10001</v>
       </c>
-      <c r="M52" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="N52" s="10"/>
+      <c r="M52" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="53" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="4">
         <v>2100203</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>148</v>
+      <c r="D53" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -13591,17 +13791,19 @@
       <c r="L53" s="4">
         <v>10001</v>
       </c>
-      <c r="M53" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="N53" s="10"/>
+      <c r="M53" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="54" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="4">
         <v>2100301</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>149</v>
+      <c r="D54" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
@@ -13627,17 +13829,19 @@
       <c r="L54" s="4">
         <v>10001</v>
       </c>
-      <c r="M54" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="N54" s="10"/>
+      <c r="M54" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="55" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="4">
         <v>2100302</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>150</v>
+      <c r="D55" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -13663,17 +13867,19 @@
       <c r="L55" s="4">
         <v>10001</v>
       </c>
-      <c r="M55" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="N55" s="10"/>
+      <c r="M55" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="56" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="4">
         <v>2100401</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>151</v>
+      <c r="D56" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
@@ -13688,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J56" s="4">
         <v>1</v>
@@ -13699,17 +13905,19 @@
       <c r="L56" s="4">
         <v>10001</v>
       </c>
-      <c r="M56" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="N56" s="10"/>
+      <c r="M56" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="57" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="4">
         <v>2100402</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>152</v>
+      <c r="D57" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -13735,17 +13943,19 @@
       <c r="L57" s="4">
         <v>10001</v>
       </c>
-      <c r="M57" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="N57" s="10"/>
+      <c r="M57" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="58" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="4">
         <v>2100403</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>153</v>
+      <c r="D58" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -13760,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
@@ -13771,17 +13981,19 @@
       <c r="L58" s="4">
         <v>10001</v>
       </c>
-      <c r="M58" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="N58" s="10"/>
+      <c r="M58" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="59" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="4">
         <v>2100404</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>154</v>
+      <c r="D59" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -13807,17 +14019,19 @@
       <c r="L59" s="4">
         <v>10001</v>
       </c>
-      <c r="M59" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N59" s="10"/>
+      <c r="M59" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="60" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="4">
         <v>2100405</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>155</v>
+      <c r="D60" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -13843,17 +14057,19 @@
       <c r="L60" s="4">
         <v>10001</v>
       </c>
-      <c r="M60" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="N60" s="10"/>
+      <c r="M60" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="61" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="4">
         <v>2100501</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>156</v>
+      <c r="D61" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
@@ -13879,17 +14095,19 @@
       <c r="L61" s="4">
         <v>10001</v>
       </c>
-      <c r="M61" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="N61" s="10"/>
+      <c r="M61" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="62" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="4">
         <v>2100502</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>157</v>
+      <c r="D62" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
@@ -13915,19 +14133,19 @@
       <c r="L62" s="4">
         <v>10001</v>
       </c>
-      <c r="M62" s="19" t="s">
-        <v>177</v>
+      <c r="M62" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="4">
         <v>2100601</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>158</v>
+      <c r="D63" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -13942,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J63" s="4">
         <v>1</v>
@@ -13953,17 +14171,19 @@
       <c r="L63" s="4">
         <v>10001</v>
       </c>
-      <c r="M63" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="N63" s="10"/>
+      <c r="M63" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="64" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="4">
         <v>2100602</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>159</v>
+      <c r="D64" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -13989,17 +14209,19 @@
       <c r="L64" s="4">
         <v>10001</v>
       </c>
-      <c r="M64" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="N64" s="10"/>
+      <c r="M64" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="65" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="4">
         <v>2100603</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>160</v>
+      <c r="D65" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
@@ -14025,17 +14247,19 @@
       <c r="L65" s="4">
         <v>10001</v>
       </c>
-      <c r="M65" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N65" s="10"/>
+      <c r="M65" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="66" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="4">
         <v>2100604</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>161</v>
+      <c r="D66" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -14061,17 +14285,19 @@
       <c r="L66" s="4">
         <v>10001</v>
       </c>
-      <c r="M66" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="N66" s="10"/>
+      <c r="M66" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="67" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="4">
         <v>2100605</v>
       </c>
-      <c r="D67" s="18" t="s">
-        <v>162</v>
+      <c r="D67" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="E67" s="4">
         <v>1</v>
@@ -14097,17 +14323,19 @@
       <c r="L67" s="4">
         <v>10001</v>
       </c>
-      <c r="M67" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N67" s="10"/>
+      <c r="M67" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="68" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="4">
         <v>2100701</v>
       </c>
-      <c r="D68" s="18" t="s">
-        <v>161</v>
+      <c r="D68" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E68" s="4">
         <v>1</v>
@@ -14133,17 +14361,19 @@
       <c r="L68" s="4">
         <v>10001</v>
       </c>
-      <c r="M68" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="N68" s="10"/>
+      <c r="M68" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="69" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="4">
         <v>2100702</v>
       </c>
-      <c r="D69" s="18" t="s">
-        <v>163</v>
+      <c r="D69" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -14158,7 +14388,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J69" s="4">
         <v>1</v>
@@ -14169,17 +14399,19 @@
       <c r="L69" s="4">
         <v>10001</v>
       </c>
-      <c r="M69" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N69" s="10"/>
+      <c r="M69" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="70" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="4">
         <v>2100703</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>164</v>
+      <c r="D70" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="E70" s="4">
         <v>1</v>
@@ -14194,7 +14426,7 @@
         <v>5</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J70" s="4">
         <v>1</v>
@@ -14205,17 +14437,19 @@
       <c r="L70" s="4">
         <v>10001</v>
       </c>
-      <c r="M70" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="N70" s="10"/>
+      <c r="M70" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="71" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="4">
         <v>2200101</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -14241,8 +14475,8 @@
       <c r="L71" s="4">
         <v>10001</v>
       </c>
-      <c r="M71" s="19" t="s">
-        <v>165</v>
+      <c r="M71" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="N71" s="10"/>
     </row>
@@ -14250,8 +14484,8 @@
       <c r="C72" s="4">
         <v>2200201</v>
       </c>
-      <c r="D72" s="18" t="s">
-        <v>146</v>
+      <c r="D72" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="E72" s="4">
         <v>1</v>
@@ -14277,8 +14511,8 @@
       <c r="L72" s="4">
         <v>10001</v>
       </c>
-      <c r="M72" s="19" t="s">
-        <v>166</v>
+      <c r="M72" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -14286,8 +14520,8 @@
       <c r="C73" s="4">
         <v>2200202</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>147</v>
+      <c r="D73" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -14313,8 +14547,8 @@
       <c r="L73" s="4">
         <v>10001</v>
       </c>
-      <c r="M73" s="19" t="s">
-        <v>167</v>
+      <c r="M73" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="N73" s="10"/>
     </row>
@@ -14322,8 +14556,8 @@
       <c r="C74" s="4">
         <v>2200203</v>
       </c>
-      <c r="D74" s="18" t="s">
-        <v>148</v>
+      <c r="D74" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="E74" s="4">
         <v>1</v>
@@ -14349,8 +14583,8 @@
       <c r="L74" s="4">
         <v>10001</v>
       </c>
-      <c r="M74" s="19" t="s">
-        <v>168</v>
+      <c r="M74" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="N74" s="10"/>
     </row>
@@ -14358,8 +14592,8 @@
       <c r="C75" s="4">
         <v>2200301</v>
       </c>
-      <c r="D75" s="18" t="s">
-        <v>149</v>
+      <c r="D75" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -14385,8 +14619,8 @@
       <c r="L75" s="4">
         <v>10001</v>
       </c>
-      <c r="M75" s="19" t="s">
-        <v>169</v>
+      <c r="M75" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="N75" s="10"/>
     </row>
@@ -14394,8 +14628,8 @@
       <c r="C76" s="4">
         <v>2200302</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>150</v>
+      <c r="D76" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
@@ -14421,8 +14655,8 @@
       <c r="L76" s="4">
         <v>10001</v>
       </c>
-      <c r="M76" s="19" t="s">
-        <v>170</v>
+      <c r="M76" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="N76" s="10"/>
     </row>
@@ -14430,8 +14664,8 @@
       <c r="C77" s="4">
         <v>2200401</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>151</v>
+      <c r="D77" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
@@ -14446,7 +14680,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J77" s="4">
         <v>1</v>
@@ -14457,8 +14691,8 @@
       <c r="L77" s="4">
         <v>10001</v>
       </c>
-      <c r="M77" s="19" t="s">
-        <v>171</v>
+      <c r="M77" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="N77" s="10"/>
     </row>
@@ -14466,8 +14700,8 @@
       <c r="C78" s="4">
         <v>2200402</v>
       </c>
-      <c r="D78" s="18" t="s">
-        <v>152</v>
+      <c r="D78" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="E78" s="4">
         <v>1</v>
@@ -14493,8 +14727,8 @@
       <c r="L78" s="4">
         <v>10001</v>
       </c>
-      <c r="M78" s="19" t="s">
-        <v>172</v>
+      <c r="M78" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="N78" s="10"/>
     </row>
@@ -14502,8 +14736,8 @@
       <c r="C79" s="4">
         <v>2200403</v>
       </c>
-      <c r="D79" s="18" t="s">
-        <v>153</v>
+      <c r="D79" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="E79" s="4">
         <v>1</v>
@@ -14518,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J79" s="4">
         <v>1</v>
@@ -14529,8 +14763,8 @@
       <c r="L79" s="4">
         <v>10001</v>
       </c>
-      <c r="M79" s="19" t="s">
-        <v>173</v>
+      <c r="M79" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="N79" s="10"/>
     </row>
@@ -14538,8 +14772,8 @@
       <c r="C80" s="4">
         <v>2200404</v>
       </c>
-      <c r="D80" s="18" t="s">
-        <v>154</v>
+      <c r="D80" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
@@ -14565,8 +14799,8 @@
       <c r="L80" s="4">
         <v>10001</v>
       </c>
-      <c r="M80" s="19" t="s">
-        <v>174</v>
+      <c r="M80" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="N80" s="10"/>
     </row>
@@ -14574,8 +14808,8 @@
       <c r="C81" s="4">
         <v>2200405</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>155</v>
+      <c r="D81" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
@@ -14601,8 +14835,8 @@
       <c r="L81" s="4">
         <v>10001</v>
       </c>
-      <c r="M81" s="19" t="s">
-        <v>175</v>
+      <c r="M81" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="N81" s="10"/>
     </row>
@@ -14610,8 +14844,8 @@
       <c r="C82" s="4">
         <v>2200501</v>
       </c>
-      <c r="D82" s="18" t="s">
-        <v>156</v>
+      <c r="D82" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="E82" s="4">
         <v>1</v>
@@ -14637,8 +14871,8 @@
       <c r="L82" s="4">
         <v>10001</v>
       </c>
-      <c r="M82" s="19" t="s">
-        <v>176</v>
+      <c r="M82" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="N82" s="10"/>
     </row>
@@ -14646,8 +14880,8 @@
       <c r="C83" s="4">
         <v>2200502</v>
       </c>
-      <c r="D83" s="18" t="s">
-        <v>157</v>
+      <c r="D83" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
@@ -14673,8 +14907,8 @@
       <c r="L83" s="4">
         <v>10001</v>
       </c>
-      <c r="M83" s="19" t="s">
-        <v>177</v>
+      <c r="M83" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -14682,8 +14916,8 @@
       <c r="C84" s="4">
         <v>2200601</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>158</v>
+      <c r="D84" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="E84" s="4">
         <v>1</v>
@@ -14698,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
@@ -14709,8 +14943,8 @@
       <c r="L84" s="4">
         <v>10001</v>
       </c>
-      <c r="M84" s="19" t="s">
-        <v>178</v>
+      <c r="M84" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="N84" s="10"/>
     </row>
@@ -14718,8 +14952,8 @@
       <c r="C85" s="4">
         <v>2200602</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>159</v>
+      <c r="D85" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E85" s="4">
         <v>1</v>
@@ -14745,8 +14979,8 @@
       <c r="L85" s="4">
         <v>10001</v>
       </c>
-      <c r="M85" s="19" t="s">
-        <v>179</v>
+      <c r="M85" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="N85" s="10"/>
     </row>
@@ -14754,8 +14988,8 @@
       <c r="C86" s="4">
         <v>2200603</v>
       </c>
-      <c r="D86" s="18" t="s">
-        <v>160</v>
+      <c r="D86" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -14781,8 +15015,8 @@
       <c r="L86" s="4">
         <v>10001</v>
       </c>
-      <c r="M86" s="19" t="s">
-        <v>180</v>
+      <c r="M86" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="N86" s="10"/>
     </row>
@@ -14790,8 +15024,8 @@
       <c r="C87" s="4">
         <v>2200604</v>
       </c>
-      <c r="D87" s="18" t="s">
-        <v>161</v>
+      <c r="D87" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
@@ -14817,8 +15051,8 @@
       <c r="L87" s="4">
         <v>10001</v>
       </c>
-      <c r="M87" s="19" t="s">
-        <v>181</v>
+      <c r="M87" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="N87" s="10"/>
     </row>
@@ -14826,8 +15060,8 @@
       <c r="C88" s="4">
         <v>2200605</v>
       </c>
-      <c r="D88" s="18" t="s">
-        <v>162</v>
+      <c r="D88" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
@@ -14853,8 +15087,8 @@
       <c r="L88" s="4">
         <v>10001</v>
       </c>
-      <c r="M88" s="19" t="s">
-        <v>182</v>
+      <c r="M88" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="N88" s="10"/>
     </row>
@@ -14862,8 +15096,8 @@
       <c r="C89" s="4">
         <v>2200701</v>
       </c>
-      <c r="D89" s="18" t="s">
-        <v>161</v>
+      <c r="D89" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E89" s="4">
         <v>1</v>
@@ -14889,8 +15123,8 @@
       <c r="L89" s="4">
         <v>10001</v>
       </c>
-      <c r="M89" s="19" t="s">
-        <v>183</v>
+      <c r="M89" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="N89" s="10"/>
     </row>
@@ -14898,8 +15132,8 @@
       <c r="C90" s="4">
         <v>2200702</v>
       </c>
-      <c r="D90" s="18" t="s">
-        <v>163</v>
+      <c r="D90" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="E90" s="4">
         <v>1</v>
@@ -14914,7 +15148,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
@@ -14925,8 +15159,8 @@
       <c r="L90" s="4">
         <v>10001</v>
       </c>
-      <c r="M90" s="19" t="s">
-        <v>184</v>
+      <c r="M90" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="N90" s="10"/>
     </row>
@@ -14934,8 +15168,8 @@
       <c r="C91" s="4">
         <v>2200703</v>
       </c>
-      <c r="D91" s="18" t="s">
-        <v>164</v>
+      <c r="D91" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -14950,7 +15184,7 @@
         <v>5</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J91" s="4">
         <v>1</v>
@@ -14961,15 +15195,15 @@
       <c r="L91" s="4">
         <v>10001</v>
       </c>
-      <c r="M91" s="19" t="s">
-        <v>185</v>
+      <c r="M91" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -14989,7 +15223,7 @@
         <v>3100101</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E94" s="4">
         <v>3</v>
@@ -15014,10 +15248,10 @@
         <v>10001</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15025,7 +15259,7 @@
         <v>3100102</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E95" s="4">
         <v>3</v>
@@ -15057,7 +15291,7 @@
         <v>3100103</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E96" s="4">
         <v>3</v>
@@ -15089,7 +15323,7 @@
         <v>3100201</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E97" s="4">
         <v>3</v>
@@ -15102,7 +15336,7 @@
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -15114,10 +15348,10 @@
         <v>10001</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15125,7 +15359,7 @@
         <v>3100202</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E98" s="4">
         <v>3</v>
@@ -15138,7 +15372,7 @@
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
@@ -15150,7 +15384,7 @@
         <v>10001</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N98" s="10"/>
     </row>
@@ -15159,7 +15393,7 @@
         <v>3100203</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E99" s="4">
         <v>3</v>
@@ -15172,7 +15406,7 @@
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
@@ -15184,7 +15418,7 @@
         <v>10001</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N99" s="10"/>
     </row>
@@ -15193,7 +15427,7 @@
         <v>3200101</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E100" s="4">
         <v>3</v>
@@ -15218,10 +15452,10 @@
         <v>10001</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15229,7 +15463,7 @@
         <v>3200102</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15261,7 +15495,7 @@
         <v>3200103</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E102" s="4">
         <v>3</v>
@@ -15293,7 +15527,7 @@
         <v>3200201</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E103" s="4">
         <v>3</v>
@@ -15306,7 +15540,7 @@
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J103" s="4">
         <v>0</v>
@@ -15318,10 +15552,10 @@
         <v>10001</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15329,7 +15563,7 @@
         <v>3200202</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E104" s="4">
         <v>3</v>
@@ -15342,7 +15576,7 @@
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J104" s="4">
         <v>0</v>
@@ -15354,7 +15588,7 @@
         <v>10001</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N104" s="10"/>
     </row>
@@ -15363,7 +15597,7 @@
         <v>3200203</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -15376,7 +15610,7 @@
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J105" s="4">
         <v>0</v>
@@ -15388,7 +15622,7 @@
         <v>10001</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N105" s="10"/>
     </row>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB88B44-ED2D-43A1-A195-0E2959E89FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCC448-DB53-45A7-9443-7AF2C5AE86E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -11919,8 +11919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12144,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>138</v>
@@ -12182,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>31</v>
@@ -12218,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>182</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>33</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>10001</v>
+        <v>10006</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>186</v>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>10001</v>
+        <v>10007</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>37</v>
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>10001</v>
+        <v>10008</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>39</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>10001</v>
+        <v>10009</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>42</v>
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>10001</v>
+        <v>10010</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>44</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>10001</v>
+        <v>10011</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>190</v>
@@ -12522,7 +12522,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>10001</v>
+        <v>10012</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>47</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>10001</v>
+        <v>10013</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>49</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>10001</v>
+        <v>10014</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>52</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>10001</v>
+        <v>10015</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>54</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>10001</v>
+        <v>10016</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>195</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>10001</v>
+        <v>10017</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>57</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>10001</v>
+        <v>10018</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>59</v>
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>10001</v>
+        <v>10019</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>61</v>
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>10001</v>
+        <v>10020</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>203</v>
@@ -12864,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>10001</v>
+        <v>10021</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>66</v>
@@ -12938,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>70</v>
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>72</v>
@@ -13010,7 +13010,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>74</v>
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>76</v>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>10001</v>
+        <v>10006</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>78</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>10001</v>
+        <v>10007</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>81</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>10001</v>
+        <v>10008</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>83</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>10001</v>
+        <v>10009</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>86</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>10001</v>
+        <v>10010</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>88</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>10001</v>
+        <v>10011</v>
       </c>
       <c r="M38" s="11" t="s">
         <v>90</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>10001</v>
+        <v>10012</v>
       </c>
       <c r="M39" s="11" t="s">
         <v>92</v>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>10001</v>
+        <v>10013</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>94</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>10001</v>
+        <v>10014</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>97</v>
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>10001</v>
+        <v>10015</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>99</v>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>10001</v>
+        <v>10016</v>
       </c>
       <c r="M43" s="11" t="s">
         <v>101</v>
@@ -13478,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <v>10001</v>
+        <v>10017</v>
       </c>
       <c r="M44" s="11" t="s">
         <v>103</v>
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>10001</v>
+        <v>10018</v>
       </c>
       <c r="M45" s="11" t="s">
         <v>105</v>
@@ -13550,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>10001</v>
+        <v>10019</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>107</v>
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4">
-        <v>10001</v>
+        <v>10020</v>
       </c>
       <c r="M47" s="11" t="s">
         <v>110</v>
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>10001</v>
+        <v>10021</v>
       </c>
       <c r="M48" s="11" t="s">
         <v>113</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>160</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="M52" s="18" t="s">
         <v>161</v>
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="M53" s="18" t="s">
         <v>162</v>
@@ -13827,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="M54" s="18" t="s">
         <v>163</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>10001</v>
+        <v>10006</v>
       </c>
       <c r="M55" s="18" t="s">
         <v>209</v>
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>10001</v>
+        <v>10007</v>
       </c>
       <c r="M56" s="18" t="s">
         <v>165</v>
@@ -13941,7 +13941,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>10001</v>
+        <v>10008</v>
       </c>
       <c r="M57" s="18" t="s">
         <v>166</v>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>10001</v>
+        <v>10009</v>
       </c>
       <c r="M58" s="18" t="s">
         <v>167</v>
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4">
-        <v>10001</v>
+        <v>10010</v>
       </c>
       <c r="M59" s="18" t="s">
         <v>168</v>
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4">
-        <v>10001</v>
+        <v>10011</v>
       </c>
       <c r="M60" s="18" t="s">
         <v>169</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4">
-        <v>10001</v>
+        <v>10012</v>
       </c>
       <c r="M61" s="18" t="s">
         <v>170</v>
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <v>10001</v>
+        <v>10013</v>
       </c>
       <c r="M62" s="18" t="s">
         <v>171</v>
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4">
-        <v>10001</v>
+        <v>10014</v>
       </c>
       <c r="M63" s="18" t="s">
         <v>220</v>
@@ -14207,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4">
-        <v>10001</v>
+        <v>10015</v>
       </c>
       <c r="M64" s="18" t="s">
         <v>226</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>10001</v>
+        <v>10016</v>
       </c>
       <c r="M65" s="18" t="s">
         <v>174</v>
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>10001</v>
+        <v>10017</v>
       </c>
       <c r="M66" s="11" t="s">
         <v>39</v>
@@ -14321,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>10001</v>
+        <v>10018</v>
       </c>
       <c r="M67" s="18" t="s">
         <v>224</v>
@@ -14359,7 +14359,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>10001</v>
+        <v>10019</v>
       </c>
       <c r="M68" s="18" t="s">
         <v>177</v>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>10001</v>
+        <v>10020</v>
       </c>
       <c r="M69" s="18" t="s">
         <v>178</v>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>10001</v>
+        <v>10021</v>
       </c>
       <c r="M70" s="18" t="s">
         <v>179</v>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="M72" s="18" t="s">
         <v>160</v>
@@ -14545,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="M73" s="18" t="s">
         <v>161</v>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="M74" s="18" t="s">
         <v>162</v>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="M75" s="18" t="s">
         <v>163</v>
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>10001</v>
+        <v>10006</v>
       </c>
       <c r="M76" s="18" t="s">
         <v>164</v>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <v>10001</v>
+        <v>10007</v>
       </c>
       <c r="M77" s="18" t="s">
         <v>165</v>
@@ -14725,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>10001</v>
+        <v>10008</v>
       </c>
       <c r="M78" s="18" t="s">
         <v>166</v>
@@ -14761,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>10001</v>
+        <v>10009</v>
       </c>
       <c r="M79" s="18" t="s">
         <v>167</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>10001</v>
+        <v>10010</v>
       </c>
       <c r="M80" s="18" t="s">
         <v>168</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4">
-        <v>10001</v>
+        <v>10011</v>
       </c>
       <c r="M81" s="18" t="s">
         <v>169</v>
@@ -14869,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4">
-        <v>10001</v>
+        <v>10012</v>
       </c>
       <c r="M82" s="18" t="s">
         <v>170</v>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4">
-        <v>10001</v>
+        <v>10013</v>
       </c>
       <c r="M83" s="18" t="s">
         <v>171</v>
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4">
-        <v>10001</v>
+        <v>10014</v>
       </c>
       <c r="M84" s="18" t="s">
         <v>172</v>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4">
-        <v>10001</v>
+        <v>10015</v>
       </c>
       <c r="M85" s="18" t="s">
         <v>173</v>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4">
-        <v>10001</v>
+        <v>10016</v>
       </c>
       <c r="M86" s="18" t="s">
         <v>174</v>
@@ -15049,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4">
-        <v>10001</v>
+        <v>10017</v>
       </c>
       <c r="M87" s="18" t="s">
         <v>175</v>
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4">
-        <v>10001</v>
+        <v>10018</v>
       </c>
       <c r="M88" s="18" t="s">
         <v>176</v>
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4">
-        <v>10001</v>
+        <v>10019</v>
       </c>
       <c r="M89" s="18" t="s">
         <v>177</v>
@@ -15157,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="4">
-        <v>10001</v>
+        <v>10020</v>
       </c>
       <c r="M90" s="18" t="s">
         <v>178</v>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="4">
-        <v>10001</v>
+        <v>10021</v>
       </c>
       <c r="M91" s="18" t="s">
         <v>179</v>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCC448-DB53-45A7-9443-7AF2C5AE86E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E4E5F0-462B-4FD0-8076-FBE5765C9432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -11919,8 +11919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13654,7 +13654,7 @@
         <v>139</v>
       </c>
       <c r="E50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>140</v>
       </c>
       <c r="E51" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -13730,7 +13730,7 @@
         <v>141</v>
       </c>
       <c r="E52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -13768,7 +13768,7 @@
         <v>142</v>
       </c>
       <c r="E53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -13806,7 +13806,7 @@
         <v>143</v>
       </c>
       <c r="E54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -13844,7 +13844,7 @@
         <v>144</v>
       </c>
       <c r="E55" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -13882,7 +13882,7 @@
         <v>145</v>
       </c>
       <c r="E56" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -13920,7 +13920,7 @@
         <v>146</v>
       </c>
       <c r="E57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -13958,7 +13958,7 @@
         <v>147</v>
       </c>
       <c r="E58" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>148</v>
       </c>
       <c r="E59" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -14034,7 +14034,7 @@
         <v>149</v>
       </c>
       <c r="E60" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -14072,7 +14072,7 @@
         <v>150</v>
       </c>
       <c r="E61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -14110,7 +14110,7 @@
         <v>151</v>
       </c>
       <c r="E62" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -14148,7 +14148,7 @@
         <v>152</v>
       </c>
       <c r="E63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -14186,7 +14186,7 @@
         <v>153</v>
       </c>
       <c r="E64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -14224,7 +14224,7 @@
         <v>154</v>
       </c>
       <c r="E65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -14262,7 +14262,7 @@
         <v>155</v>
       </c>
       <c r="E66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -14300,7 +14300,7 @@
         <v>228</v>
       </c>
       <c r="E67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -14338,7 +14338,7 @@
         <v>155</v>
       </c>
       <c r="E68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -14376,7 +14376,7 @@
         <v>157</v>
       </c>
       <c r="E69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -14414,7 +14414,7 @@
         <v>158</v>
       </c>
       <c r="E70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -14452,7 +14452,7 @@
         <v>139</v>
       </c>
       <c r="E71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="4">
         <v>2</v>
@@ -14488,7 +14488,7 @@
         <v>140</v>
       </c>
       <c r="E72" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="4">
         <v>2</v>
@@ -14524,7 +14524,7 @@
         <v>141</v>
       </c>
       <c r="E73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4">
         <v>2</v>
@@ -14560,7 +14560,7 @@
         <v>142</v>
       </c>
       <c r="E74" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -14596,7 +14596,7 @@
         <v>143</v>
       </c>
       <c r="E75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -14632,7 +14632,7 @@
         <v>144</v>
       </c>
       <c r="E76" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -14668,7 +14668,7 @@
         <v>145</v>
       </c>
       <c r="E77" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="4">
         <v>2</v>
@@ -14704,7 +14704,7 @@
         <v>146</v>
       </c>
       <c r="E78" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="4">
         <v>2</v>
@@ -14740,7 +14740,7 @@
         <v>147</v>
       </c>
       <c r="E79" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="4">
         <v>2</v>
@@ -14776,7 +14776,7 @@
         <v>148</v>
       </c>
       <c r="E80" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="4">
         <v>2</v>
@@ -14812,7 +14812,7 @@
         <v>149</v>
       </c>
       <c r="E81" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="4">
         <v>2</v>
@@ -14848,7 +14848,7 @@
         <v>150</v>
       </c>
       <c r="E82" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="4">
         <v>2</v>
@@ -14884,7 +14884,7 @@
         <v>151</v>
       </c>
       <c r="E83" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="4">
         <v>2</v>
@@ -14920,7 +14920,7 @@
         <v>152</v>
       </c>
       <c r="E84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" s="4">
         <v>2</v>
@@ -14956,7 +14956,7 @@
         <v>153</v>
       </c>
       <c r="E85" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" s="4">
         <v>2</v>
@@ -14992,7 +14992,7 @@
         <v>154</v>
       </c>
       <c r="E86" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" s="4">
         <v>2</v>
@@ -15028,7 +15028,7 @@
         <v>155</v>
       </c>
       <c r="E87" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" s="4">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>156</v>
       </c>
       <c r="E88" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" s="4">
         <v>2</v>
@@ -15100,7 +15100,7 @@
         <v>155</v>
       </c>
       <c r="E89" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="4">
         <v>2</v>
@@ -15136,7 +15136,7 @@
         <v>157</v>
       </c>
       <c r="E90" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" s="4">
         <v>2</v>
@@ -15172,7 +15172,7 @@
         <v>158</v>
       </c>
       <c r="E91" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" s="4">
         <v>2</v>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E4E5F0-462B-4FD0-8076-FBE5765C9432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BE27C-FF02-4605-90F4-9A6CC0BB632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>攻击上升</t>
   </si>
   <si>
-    <t>攻击永久提升1%/2%/3%</t>
-  </si>
-  <si>
     <t>RolePropertyAdd;100402;0.01#RolePropertyAdd;100402;0.02#RolePropertyAdd;100402;0.03</t>
   </si>
   <si>
@@ -204,15 +201,9 @@
     <t>前冲</t>
   </si>
   <si>
-    <t>前冲距离延长2码/4码/6码距离</t>
-  </si>
-  <si>
     <t>幻影伤害</t>
   </si>
   <si>
-    <t>幻影跃击伤害提升30%/60%/100%</t>
-  </si>
-  <si>
     <t>魔焰缓速</t>
   </si>
   <si>
@@ -222,81 +213,48 @@
     <t>1100301,1100302</t>
   </si>
   <si>
-    <t>释放旋舞之影使自身的移动速度提升50%,持续3秒</t>
-  </si>
-  <si>
     <t>怪物之伤</t>
   </si>
   <si>
-    <t>技能攻击怪物伤害提升2%/4%/6%/8%/10%</t>
-  </si>
-  <si>
     <t>地裂之触</t>
   </si>
   <si>
     <t>1100402</t>
   </si>
   <si>
-    <t>攻击有一定概率触发魔焰地裂</t>
-  </si>
-  <si>
     <t>闪避提升</t>
   </si>
   <si>
-    <t>闪避上限永久提升1%/2%/3%/4%/5%</t>
-  </si>
-  <si>
     <t>绝地希望</t>
   </si>
   <si>
     <t>旋舞伤害</t>
   </si>
   <si>
-    <t>旋舞之影技能伤害提升8%/16%/24%/32%/40</t>
-  </si>
-  <si>
     <t>闪避恢复</t>
   </si>
   <si>
-    <t>每次闪避恢复自身最大血量的0.5%/1%/1.5%/2%/2.5%</t>
-  </si>
-  <si>
     <t>魔焰迅捷</t>
   </si>
   <si>
     <t>1100501,1100502</t>
   </si>
   <si>
-    <t>炎龙咆哮冷却时间降低2秒</t>
-  </si>
-  <si>
     <t>暴击上升</t>
   </si>
   <si>
-    <t>暴击概率永久提升1%/2%/3%/4%/5%</t>
-  </si>
-  <si>
     <t>反击</t>
   </si>
   <si>
     <t>冷却降低</t>
   </si>
   <si>
-    <t>技能冷却时间降低1%/2%/3%/4%/5%</t>
-  </si>
-  <si>
     <t>幻影冷却</t>
   </si>
   <si>
-    <t>幻影跃击冷却时间降低2秒</t>
-  </si>
-  <si>
     <t>咆哮伤害</t>
   </si>
   <si>
-    <t>炎龙咆哮伤害提升20%/40%/60%/80%/100%</t>
-  </si>
-  <si>
     <t>时间消逝</t>
   </si>
   <si>
@@ -309,150 +267,84 @@
     <t>1100701,1100702</t>
   </si>
   <si>
-    <t>自身普攻伤害提升8%/16%/24%/32%/40%</t>
-  </si>
-  <si>
     <t>伤害上升</t>
   </si>
   <si>
-    <t>造成的伤害加成提升1%/2%/3%</t>
-  </si>
-  <si>
     <t>魔焰眩晕</t>
   </si>
   <si>
-    <t>魔焰地裂可以使目标眩晕1秒</t>
-  </si>
-  <si>
     <t>药剂恢复</t>
   </si>
   <si>
-    <t>使用药剂恢复效果提升10%/20%/30%</t>
-  </si>
-  <si>
     <t>怪物抵抗</t>
   </si>
   <si>
-    <t>受到怪物伤害降低10%</t>
-  </si>
-  <si>
     <t>魔焰冷却</t>
   </si>
   <si>
-    <t>魔焰地裂冷却时间降低1秒/2秒/3秒</t>
-  </si>
-  <si>
     <t>命中提升</t>
   </si>
   <si>
-    <t>命中概率提升2%/4%/6%</t>
-  </si>
-  <si>
     <t>暴击恢复</t>
   </si>
   <si>
     <t>1200301,1200302</t>
   </si>
   <si>
-    <t>每次暴击恢复自身生命的3%</t>
-  </si>
-  <si>
     <t>技能提升</t>
   </si>
   <si>
-    <t>技能伤害提升1%/2%/3%/4%/5%</t>
-  </si>
-  <si>
     <t>重击之击</t>
   </si>
   <si>
     <t>1200402</t>
   </si>
   <si>
-    <t>普通攻击有一定概率将目标的防御将至0，持续5秒</t>
-  </si>
-  <si>
     <t>重击提升</t>
   </si>
   <si>
-    <t>重击概率永久提升1%/2%/3%/4%/5%</t>
-  </si>
-  <si>
     <t>咆哮眩晕</t>
   </si>
   <si>
-    <t>炎龙咆哮眩晕目标1秒</t>
-  </si>
-  <si>
     <t>旋影暴击</t>
   </si>
   <si>
-    <t>旋影之舞的技能暴击概率提升10%/20%/30%/40%/50%</t>
-  </si>
-  <si>
     <t>伤害减免</t>
   </si>
   <si>
-    <t>受到伤害降低1%/2%/3%/4%/5%</t>
-  </si>
-  <si>
     <t>生命护卫</t>
   </si>
   <si>
     <t>1200501,1200502</t>
   </si>
   <si>
-    <t>当生命降低50%时,自身受到的伤害降低50%,持续6秒   90秒冷却时间</t>
-  </si>
-  <si>
     <t>物理穿透</t>
   </si>
   <si>
-    <t>物理穿透提升2%/4%/6%/8%/10%</t>
-  </si>
-  <si>
     <t>闪击爆发</t>
   </si>
   <si>
-    <t>释放技能时,有概率对命中的目标额外释放闪击技能,对目标额外造成200%伤害</t>
-  </si>
-  <si>
     <t>魔法穿透</t>
   </si>
   <si>
-    <t>魔法穿透提升2%/4%/6%/8%/10%</t>
-  </si>
-  <si>
     <t>尖刺之壳</t>
   </si>
   <si>
-    <t>受到攻击有20%概率对目标造成1秒眩晕,此效果20秒触发一次</t>
-  </si>
-  <si>
     <t>神佑之体</t>
   </si>
   <si>
-    <t>生命降低至0时有1%/2%/3%/4%/5%概率恢复己方全部生命值</t>
-  </si>
-  <si>
     <t>英勇恢复</t>
   </si>
   <si>
     <t>1200604</t>
   </si>
   <si>
-    <t>使自身的技能附带恢复,每次释放技能伤害可以恢复自身3%的生命</t>
-  </si>
-  <si>
     <t>旋风之击</t>
   </si>
   <si>
     <t>1200701,1200702</t>
   </si>
   <si>
-    <t>受到伤害有2%/4%/6%/8%/10%概率直接触发旋风之击,对自身范围造成250%伤害</t>
-  </si>
-  <si>
     <t>#法师</t>
   </si>
   <si>
@@ -523,10 +415,6 @@
   </si>
   <si>
     <t>2200701,2200702</t>
-  </si>
-  <si>
-    <t>魔焰地裂会对目标释放爆裂状态,3秒后对范围内造成200%爆炸伤害</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>攻击上升</t>
@@ -609,90 +497,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>攻击永久提升1%/2%/3%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封冲击技能冷却时间缩减2秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封冲击伤害提升30%/60%/100%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>普攻使目标移动速度降低30%,持续3秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>破冰飞弹伤害提升30%,60%,100%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>破冰飞弹使目标防御和魔御降低10%/20%/30%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次暴击有30%概率对目标附加伤害加深状态,使其受到伤害增加25%,持续3秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击概率提升1%/2%/3%/4%/5%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击有10%概率触发破冰飞弹</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通伤害提升3%/6%/9%/12%/15%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击目标有10%概率提升自身25%伤害,持续3秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣御之击伤害提升20%/40%/60%/80%100%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击上限永久提升1%/2%/3%/4%/5%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣御之击冷却时间降低1秒,并使目标移动速度降低50%,持续3秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨岩震击有20%/40%/60%/80%/100%概率眩晕目标2秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到攻击有10%概率对目标释放圣御之击</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能伤害提升2%/4%/6%/8%/10%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害有5%概率给自己释放一个护盾,护盾可以抵抗50%伤害,最大承受生命的30%,持续20秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨岩震击伤害提升20%/40%/60%/80%100%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增技能熔岩爆裂,对目标造成350%伤害,并使目标眩晕2秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度提升2%/4%/6%/8%/10%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>RolePropertyAdd;200103;0.01#RolePropertyAdd;200103;0.02#RolePropertyAdd;200103;0.03#RolePropertyAdd;200103;0.04#RolePropertyAdd;200103;0.05</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -701,10 +505,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>魔焰地裂会使用目标受到伤害提升10%,持续5秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>魔焰伤害</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -717,10 +517,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>魔焰地裂使目标移动速度降低30%/45%/60%，持续3秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillPropertyAdd;1110002,1110003,1110004,1110005,1110006;6;11100012#SkillPropertyAdd;1110002,1110003,1110004,1110005,1110006;6;11100013#SkillPropertyAdd;1110002,1110003,1110004,1110005,1110006;6;11100014</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -733,10 +529,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，60秒冷却时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillIdAdd;1301003</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -753,10 +545,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>受到技能攻击有10%概率对目标造成对等伤害</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>RolePropertyAdd;200303;0.01#RolePropertyAdd;200303;0.02#RolePropertyAdd;200303;0.03#RolePropertyAdd;200303;0.04#RolePropertyAdd;200303;0.05</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -785,10 +573,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>释放技能有10%概率不进入冷却时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>RolePropertyAdd;204003;0.1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -809,10 +593,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>破冰飞弹使目标受到伤害增加10%/20%/30%</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;6;11200110#SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;6;11200111#SkillPropertyAdd;1120012,1120013,1120014,1120015,1120016;6;11200112</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -853,10 +633,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>圣御之击冷却时间降低1秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillPropertyAdd;1120022,1120023,1120024,1120025,1120026;4;1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -869,23 +645,283 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>释放技能有5%概率不触发任何冷却时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>RolePropertyAdd;204003;0.05</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>技能有1%/2%/3%/4%/5%概率造成双倍伤害</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>RolePropertyAdd;204103;0.01#RolePropertyAdd;204103;0.02#RolePropertyAdd;204103;0.03#RolePropertyAdd;204103;0.04#RolePropertyAdd;204103;0.05</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>极限冷却</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击永久提升1%/2%/3%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂会对目标释放爆裂状态,3秒后对范围内造成200%爆炸伤害。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>前冲距离延长2码/4码/6码距离。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂会使用目标受到伤害提升10%,持续5秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影跃击伤害提升30%/60%/100%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂使目标移动速度降低30%/45%/60%，持续3秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放旋舞之影使自身的移动速度提升50%,持续3秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击怪物伤害提升2%/4%/6%/8%/10%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击有一定概率触发魔焰地裂。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避上限永久提升1%/2%/3%/4%/5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，60秒冷却时间。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋舞之影技能伤害提升8%/16%/24%/32%/40。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次闪避恢复自身最大血量的0.5%/1%/1.5%/2%/2.5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎龙咆哮冷却时间降低2秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率永久提升1%/2%/3%/4%/5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到技能攻击有10%概率对目标造成对等伤害。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却时间降低1%/2%/3%/4%/5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影跃击冷却时间降低2秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎龙咆哮伤害提升20%/40%/60%/80%/100%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能有10%概率不进入冷却时间。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身普攻伤害提升8%/16%/24%/32%/40%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害加成提升1%/2%/3%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂可以使目标眩晕1秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用药剂恢复效果提升10%/20%/30%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到怪物伤害降低10%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂冷却时间降低1秒/2秒/3秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中概率提升2%/4%/6%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次暴击恢复自身生命的3%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害提升1%/2%/3%/4%/5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击有一定概率将目标的防御将至0，持续5秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率永久提升1%/2%/3%/4%/5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎龙咆哮眩晕目标1秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋影之舞的技能暴击概率提升10%/20%/30%/40%/50%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害降低1%/2%/3%/4%/5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理穿透提升2%/4%/6%/8%/10%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>当生命降低50%时,自身受到的伤害降低50%,持续6秒，90秒冷却时间。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能时,有概率对命中的目标额外释放闪击技能,对目标额外造成200%伤害。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法穿透提升2%/4%/6%/8%/10%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有20%概率对目标造成1秒眩晕,此效果20秒触发一次。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命降低至0时有1%/2%/3%/4%/5%概率恢复己方全部生命值。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>使自身的技能附带恢复,每次释放技能伤害可以恢复自身3%的生命。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有2%/4%/6%/8%/10%概率直接触发旋风之击,对自身范围造成250%伤害。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击永久提升1%/2%/3%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冲击技能冷却时间缩减2秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冲击伤害提升30%/60%/100%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻使目标移动速度降低30%,持续3秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰飞弹伤害提升30%,60%,100%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰飞弹使目标受到伤害增加10%/20%/30%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次暴击有30%概率对目标附加伤害加深状态,使其受到伤害增加25%,持续3秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升2%/4%/6%/8%/10%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能熔岩爆裂,对目标造成350%伤害,并使目标眩晕2秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨岩震击伤害提升20%/40%/60%/80%100%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有5%概率给自己释放一个护盾,护盾可以抵抗50%伤害,最大承受生命的30%,持续20秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害提升2%/4%/6%/8%/10%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有10%概率对目标释放圣御之击。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨岩震击有20%/40%/60%/80%/100%概率眩晕目标2秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御之击冷却时间降低1秒,并使目标移动速度降低50%,持续3秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击上限永久提升1%/2%/3%/4%/5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御之击伤害提升20%/40%/60%/80%100%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击目标有10%概率提升自身25%伤害,持续3秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通伤害提升3%/6%/9%/12%/15%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击有10%概率触发破冰飞弹。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提升1%/2%/3%/4%/5%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰飞弹使目标防御和魔御降低10%/20%/30%。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能有5%概率不触发任何冷却时间。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能有1%/2%/3%/4%/5%概率造成双倍伤害。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御之击冷却时间降低1秒。</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11919,8 +11955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12109,10 +12145,10 @@
         <v>10001</v>
       </c>
       <c r="M7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12120,7 +12156,7 @@
         <v>1100201</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -12147,10 +12183,10 @@
         <v>10002</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12158,7 +12194,7 @@
         <v>1100202</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -12185,7 +12221,7 @@
         <v>10003</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -12194,7 +12230,7 @@
         <v>1100203</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -12221,10 +12257,10 @@
         <v>10004</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12232,7 +12268,7 @@
         <v>1100301</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -12259,10 +12295,10 @@
         <v>10005</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12270,7 +12306,7 @@
         <v>1100302</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -12297,10 +12333,10 @@
         <v>10006</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12308,7 +12344,7 @@
         <v>1100401</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -12323,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -12335,10 +12371,10 @@
         <v>10007</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12346,7 +12382,7 @@
         <v>1100402</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -12373,10 +12409,10 @@
         <v>10008</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12384,7 +12420,7 @@
         <v>1100403</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -12399,7 +12435,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
@@ -12411,10 +12447,10 @@
         <v>10009</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12422,7 +12458,7 @@
         <v>1100404</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -12449,10 +12485,10 @@
         <v>10010</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12460,7 +12496,7 @@
         <v>1100405</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -12487,10 +12523,10 @@
         <v>10011</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12498,7 +12534,7 @@
         <v>1100501</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -12525,10 +12561,10 @@
         <v>10012</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12536,7 +12572,7 @@
         <v>1100502</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -12563,10 +12599,10 @@
         <v>10013</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12574,7 +12610,7 @@
         <v>1100601</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -12589,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -12601,10 +12637,10 @@
         <v>10014</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12612,7 +12648,7 @@
         <v>1100602</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -12639,10 +12675,10 @@
         <v>10015</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12650,7 +12686,7 @@
         <v>1100603</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -12677,10 +12713,10 @@
         <v>10016</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12688,7 +12724,7 @@
         <v>1100604</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -12715,10 +12751,10 @@
         <v>10017</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12726,7 +12762,7 @@
         <v>1100605</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -12753,10 +12789,10 @@
         <v>10018</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12764,7 +12800,7 @@
         <v>1100701</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -12791,10 +12827,10 @@
         <v>10019</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12802,7 +12838,7 @@
         <v>1100702</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -12817,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
@@ -12829,10 +12865,10 @@
         <v>10020</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12840,7 +12876,7 @@
         <v>1100703</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -12855,7 +12891,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
@@ -12867,10 +12903,10 @@
         <v>10021</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12878,7 +12914,7 @@
         <v>1200101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -12905,7 +12941,7 @@
         <v>10001</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="N28" s="10"/>
     </row>
@@ -12914,7 +12950,7 @@
         <v>1200201</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -12941,7 +12977,7 @@
         <v>10002</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="N29" s="10"/>
     </row>
@@ -12950,7 +12986,7 @@
         <v>1200202</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -12977,7 +13013,7 @@
         <v>10003</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="N30" s="10"/>
     </row>
@@ -12986,7 +13022,7 @@
         <v>1200203</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -13013,7 +13049,7 @@
         <v>10004</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -13022,7 +13058,7 @@
         <v>1200301</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -13049,7 +13085,7 @@
         <v>10005</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -13058,7 +13094,7 @@
         <v>1200302</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -13085,7 +13121,7 @@
         <v>10006</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="N33" s="10"/>
     </row>
@@ -13094,7 +13130,7 @@
         <v>1200401</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -13109,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -13121,7 +13157,7 @@
         <v>10007</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -13130,7 +13166,7 @@
         <v>1200402</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -13157,7 +13193,7 @@
         <v>10008</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -13166,7 +13202,7 @@
         <v>1200403</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -13181,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
@@ -13193,7 +13229,7 @@
         <v>10009</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="N36" s="10"/>
     </row>
@@ -13202,7 +13238,7 @@
         <v>1200404</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -13229,7 +13265,7 @@
         <v>10010</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -13238,7 +13274,7 @@
         <v>1200405</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -13265,7 +13301,7 @@
         <v>10011</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="N38" s="10"/>
     </row>
@@ -13274,7 +13310,7 @@
         <v>1200501</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -13301,7 +13337,7 @@
         <v>10012</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -13310,7 +13346,7 @@
         <v>1200502</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -13337,7 +13373,7 @@
         <v>10013</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -13346,7 +13382,7 @@
         <v>1200601</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -13361,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
@@ -13373,7 +13409,7 @@
         <v>10014</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="N41" s="10"/>
     </row>
@@ -13382,7 +13418,7 @@
         <v>1200602</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -13409,7 +13445,7 @@
         <v>10015</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="N42" s="10"/>
     </row>
@@ -13418,7 +13454,7 @@
         <v>1200603</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -13445,7 +13481,7 @@
         <v>10016</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="N43" s="10"/>
     </row>
@@ -13454,7 +13490,7 @@
         <v>1200604</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -13481,7 +13517,7 @@
         <v>10017</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -13490,7 +13526,7 @@
         <v>1200605</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -13517,7 +13553,7 @@
         <v>10018</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -13526,7 +13562,7 @@
         <v>1200701</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -13553,7 +13589,7 @@
         <v>10019</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="N46" s="10"/>
     </row>
@@ -13562,7 +13598,7 @@
         <v>1200702</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
@@ -13577,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
@@ -13589,7 +13625,7 @@
         <v>10020</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="N47" s="10"/>
     </row>
@@ -13598,7 +13634,7 @@
         <v>1200703</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -13613,7 +13649,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="J48" s="4">
         <v>1</v>
@@ -13625,13 +13661,13 @@
         <v>10021</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -13651,7 +13687,7 @@
         <v>2100101</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -13678,10 +13714,10 @@
         <v>10001</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13689,7 +13725,7 @@
         <v>2100201</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -13716,10 +13752,10 @@
         <v>10002</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13727,7 +13763,7 @@
         <v>2100202</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -13754,10 +13790,10 @@
         <v>10003</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13765,7 +13801,7 @@
         <v>2100203</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -13792,10 +13828,10 @@
         <v>10004</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13803,7 +13839,7 @@
         <v>2100301</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -13830,10 +13866,10 @@
         <v>10005</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13841,7 +13877,7 @@
         <v>2100302</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
@@ -13871,7 +13907,7 @@
         <v>209</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13879,7 +13915,7 @@
         <v>2100401</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
@@ -13894,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="J56" s="4">
         <v>1</v>
@@ -13906,10 +13942,10 @@
         <v>10007</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13917,7 +13953,7 @@
         <v>2100402</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
@@ -13944,10 +13980,10 @@
         <v>10008</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13955,7 +13991,7 @@
         <v>2100403</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="E58" s="4">
         <v>2</v>
@@ -13970,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
@@ -13982,10 +14018,10 @@
         <v>10009</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13993,7 +14029,7 @@
         <v>2100404</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E59" s="4">
         <v>2</v>
@@ -14020,10 +14056,10 @@
         <v>10010</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14031,7 +14067,7 @@
         <v>2100405</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E60" s="4">
         <v>2</v>
@@ -14058,10 +14094,10 @@
         <v>10011</v>
       </c>
       <c r="M60" s="18" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14069,7 +14105,7 @@
         <v>2100501</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E61" s="4">
         <v>2</v>
@@ -14096,10 +14132,10 @@
         <v>10012</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14107,7 +14143,7 @@
         <v>2100502</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E62" s="4">
         <v>2</v>
@@ -14134,10 +14170,10 @@
         <v>10013</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14145,7 +14181,7 @@
         <v>2100601</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E63" s="4">
         <v>2</v>
@@ -14160,7 +14196,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="J63" s="4">
         <v>1</v>
@@ -14172,10 +14208,10 @@
         <v>10014</v>
       </c>
       <c r="M63" s="18" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14183,7 +14219,7 @@
         <v>2100602</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="E64" s="4">
         <v>2</v>
@@ -14210,10 +14246,10 @@
         <v>10015</v>
       </c>
       <c r="M64" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14221,7 +14257,7 @@
         <v>2100603</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E65" s="4">
         <v>2</v>
@@ -14248,10 +14284,10 @@
         <v>10016</v>
       </c>
       <c r="M65" s="18" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14259,7 +14295,7 @@
         <v>2100604</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E66" s="4">
         <v>2</v>
@@ -14286,10 +14322,10 @@
         <v>10017</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14297,7 +14333,7 @@
         <v>2100605</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="E67" s="4">
         <v>2</v>
@@ -14324,10 +14360,10 @@
         <v>10018</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14335,7 +14371,7 @@
         <v>2100701</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E68" s="4">
         <v>2</v>
@@ -14362,10 +14398,10 @@
         <v>10019</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14373,7 +14409,7 @@
         <v>2100702</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E69" s="4">
         <v>2</v>
@@ -14388,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="J69" s="4">
         <v>1</v>
@@ -14400,10 +14436,10 @@
         <v>10020</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14411,7 +14447,7 @@
         <v>2100703</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E70" s="4">
         <v>2</v>
@@ -14426,7 +14462,7 @@
         <v>5</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="J70" s="4">
         <v>1</v>
@@ -14438,10 +14474,10 @@
         <v>10021</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14449,7 +14485,7 @@
         <v>2200101</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E71" s="4">
         <v>2</v>
@@ -14476,7 +14512,7 @@
         <v>10001</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="N71" s="10"/>
     </row>
@@ -14485,7 +14521,7 @@
         <v>2200201</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="E72" s="4">
         <v>2</v>
@@ -14512,7 +14548,7 @@
         <v>10002</v>
       </c>
       <c r="M72" s="18" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -14521,7 +14557,7 @@
         <v>2200202</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E73" s="4">
         <v>2</v>
@@ -14548,7 +14584,7 @@
         <v>10003</v>
       </c>
       <c r="M73" s="18" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="N73" s="10"/>
     </row>
@@ -14557,7 +14593,7 @@
         <v>2200203</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E74" s="4">
         <v>2</v>
@@ -14584,7 +14620,7 @@
         <v>10004</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="N74" s="10"/>
     </row>
@@ -14593,7 +14629,7 @@
         <v>2200301</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E75" s="4">
         <v>2</v>
@@ -14620,7 +14656,7 @@
         <v>10005</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="N75" s="10"/>
     </row>
@@ -14629,7 +14665,7 @@
         <v>2200302</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E76" s="4">
         <v>2</v>
@@ -14656,7 +14692,7 @@
         <v>10006</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="N76" s="10"/>
     </row>
@@ -14665,7 +14701,7 @@
         <v>2200401</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E77" s="4">
         <v>2</v>
@@ -14680,7 +14716,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="J77" s="4">
         <v>1</v>
@@ -14692,7 +14728,7 @@
         <v>10007</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="N77" s="10"/>
     </row>
@@ -14701,7 +14737,7 @@
         <v>2200402</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="E78" s="4">
         <v>2</v>
@@ -14728,7 +14764,7 @@
         <v>10008</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="N78" s="10"/>
     </row>
@@ -14737,7 +14773,7 @@
         <v>2200403</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="E79" s="4">
         <v>2</v>
@@ -14752,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="J79" s="4">
         <v>1</v>
@@ -14764,7 +14800,7 @@
         <v>10009</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="N79" s="10"/>
     </row>
@@ -14773,7 +14809,7 @@
         <v>2200404</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E80" s="4">
         <v>2</v>
@@ -14800,7 +14836,7 @@
         <v>10010</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="N80" s="10"/>
     </row>
@@ -14809,7 +14845,7 @@
         <v>2200405</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E81" s="4">
         <v>2</v>
@@ -14836,7 +14872,7 @@
         <v>10011</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="N81" s="10"/>
     </row>
@@ -14845,7 +14881,7 @@
         <v>2200501</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E82" s="4">
         <v>2</v>
@@ -14872,7 +14908,7 @@
         <v>10012</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="N82" s="10"/>
     </row>
@@ -14881,7 +14917,7 @@
         <v>2200502</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E83" s="4">
         <v>2</v>
@@ -14908,7 +14944,7 @@
         <v>10013</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -14917,7 +14953,7 @@
         <v>2200601</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E84" s="4">
         <v>2</v>
@@ -14932,7 +14968,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
@@ -14944,7 +14980,7 @@
         <v>10014</v>
       </c>
       <c r="M84" s="18" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="N84" s="10"/>
     </row>
@@ -14953,7 +14989,7 @@
         <v>2200602</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="E85" s="4">
         <v>2</v>
@@ -14980,7 +15016,7 @@
         <v>10015</v>
       </c>
       <c r="M85" s="18" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="N85" s="10"/>
     </row>
@@ -14989,7 +15025,7 @@
         <v>2200603</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E86" s="4">
         <v>2</v>
@@ -15016,7 +15052,7 @@
         <v>10016</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="N86" s="10"/>
     </row>
@@ -15025,7 +15061,7 @@
         <v>2200604</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E87" s="4">
         <v>2</v>
@@ -15052,7 +15088,7 @@
         <v>10017</v>
       </c>
       <c r="M87" s="18" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N87" s="10"/>
     </row>
@@ -15061,7 +15097,7 @@
         <v>2200605</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="E88" s="4">
         <v>2</v>
@@ -15088,7 +15124,7 @@
         <v>10018</v>
       </c>
       <c r="M88" s="18" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="N88" s="10"/>
     </row>
@@ -15097,7 +15133,7 @@
         <v>2200701</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E89" s="4">
         <v>2</v>
@@ -15124,7 +15160,7 @@
         <v>10019</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="N89" s="10"/>
     </row>
@@ -15133,7 +15169,7 @@
         <v>2200702</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E90" s="4">
         <v>2</v>
@@ -15148,7 +15184,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
@@ -15160,7 +15196,7 @@
         <v>10020</v>
       </c>
       <c r="M90" s="18" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="N90" s="10"/>
     </row>
@@ -15169,7 +15205,7 @@
         <v>2200703</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E91" s="4">
         <v>2</v>
@@ -15184,7 +15220,7 @@
         <v>5</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="J91" s="4">
         <v>1</v>
@@ -15196,14 +15232,14 @@
         <v>10021</v>
       </c>
       <c r="M91" s="18" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -15223,7 +15259,7 @@
         <v>3100101</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E94" s="4">
         <v>3</v>
@@ -15248,10 +15284,10 @@
         <v>10001</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="2:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15259,7 +15295,7 @@
         <v>3100102</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E95" s="4">
         <v>3</v>
@@ -15291,7 +15327,7 @@
         <v>3100103</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="E96" s="4">
         <v>3</v>
@@ -15323,7 +15359,7 @@
         <v>3100201</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E97" s="4">
         <v>3</v>
@@ -15336,7 +15372,7 @@
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="14" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -15348,10 +15384,10 @@
         <v>10001</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15359,7 +15395,7 @@
         <v>3100202</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E98" s="4">
         <v>3</v>
@@ -15372,7 +15408,7 @@
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="14" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
@@ -15384,7 +15420,7 @@
         <v>10001</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N98" s="10"/>
     </row>
@@ -15393,7 +15429,7 @@
         <v>3100203</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E99" s="4">
         <v>3</v>
@@ -15406,7 +15442,7 @@
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="14" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
@@ -15418,7 +15454,7 @@
         <v>10001</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N99" s="10"/>
     </row>
@@ -15427,7 +15463,7 @@
         <v>3200101</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E100" s="4">
         <v>3</v>
@@ -15452,10 +15488,10 @@
         <v>10001</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15463,7 +15499,7 @@
         <v>3200102</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15495,7 +15531,7 @@
         <v>3200103</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="E102" s="4">
         <v>3</v>
@@ -15527,7 +15563,7 @@
         <v>3200201</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E103" s="4">
         <v>3</v>
@@ -15540,7 +15576,7 @@
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="14" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="J103" s="4">
         <v>0</v>
@@ -15552,10 +15588,10 @@
         <v>10001</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15563,7 +15599,7 @@
         <v>3200202</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E104" s="4">
         <v>3</v>
@@ -15576,7 +15612,7 @@
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="14" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="J104" s="4">
         <v>0</v>
@@ -15588,7 +15624,7 @@
         <v>10001</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N104" s="10"/>
     </row>
@@ -15597,7 +15633,7 @@
         <v>3200203</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -15610,7 +15646,7 @@
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="14" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="J105" s="4">
         <v>0</v>
@@ -15622,7 +15658,7 @@
         <v>10001</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N105" s="10"/>
     </row>

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BE27C-FF02-4605-90F4-9A6CC0BB632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF32CC5-C297-43ED-B564-0254731741B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="1" r:id="rId1"/>
@@ -669,10 +669,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>魔焰地裂会使用目标受到伤害提升10%,持续5秒。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>幻影跃击伤害提升30%/60%/100%。</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -697,10 +693,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，60秒冷却时间。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>旋舞之影技能伤害提升8%/16%/24%/32%/40。</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -922,6 +914,14 @@
   </si>
   <si>
     <t>圣御之击冷却时间降低1秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂会使目标受到伤害提升10%,持续5秒。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生命值低于10%时,立即恢复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，60秒冷却时间。</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11955,8 +11955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12257,7 +12257,7 @@
         <v>10004</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>126</v>
@@ -12295,7 +12295,7 @@
         <v>10005</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>123</v>
@@ -12333,7 +12333,7 @@
         <v>10006</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>127</v>
@@ -12371,7 +12371,7 @@
         <v>10007</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>128</v>
@@ -12409,7 +12409,7 @@
         <v>10008</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>133</v>
@@ -12447,7 +12447,7 @@
         <v>10009</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>129</v>
@@ -12485,7 +12485,7 @@
         <v>10010</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>134</v>
@@ -12523,7 +12523,7 @@
         <v>10011</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>130</v>
@@ -12561,7 +12561,7 @@
         <v>10012</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>131</v>
@@ -12599,7 +12599,7 @@
         <v>10013</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>132</v>
@@ -12637,7 +12637,7 @@
         <v>10014</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>138</v>
@@ -12675,7 +12675,7 @@
         <v>10015</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>122</v>
@@ -12713,7 +12713,7 @@
         <v>10016</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>135</v>
@@ -12751,7 +12751,7 @@
         <v>10017</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>136</v>
@@ -12789,7 +12789,7 @@
         <v>10018</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>137</v>
@@ -12827,7 +12827,7 @@
         <v>10019</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>139</v>
@@ -12865,7 +12865,7 @@
         <v>10020</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>141</v>
@@ -12903,7 +12903,7 @@
         <v>10021</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>140</v>
@@ -12941,7 +12941,7 @@
         <v>10001</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N28" s="10"/>
     </row>
@@ -12977,7 +12977,7 @@
         <v>10002</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N29" s="10"/>
     </row>
@@ -13013,7 +13013,7 @@
         <v>10003</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N30" s="10"/>
     </row>
@@ -13049,7 +13049,7 @@
         <v>10004</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -13085,7 +13085,7 @@
         <v>10005</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -13121,7 +13121,7 @@
         <v>10006</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N33" s="10"/>
     </row>
@@ -13157,7 +13157,7 @@
         <v>10007</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -13193,7 +13193,7 @@
         <v>10008</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -13229,7 +13229,7 @@
         <v>10009</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N36" s="10"/>
     </row>
@@ -13265,7 +13265,7 @@
         <v>10010</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -13301,7 +13301,7 @@
         <v>10011</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N38" s="10"/>
     </row>
@@ -13337,7 +13337,7 @@
         <v>10012</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -13373,7 +13373,7 @@
         <v>10013</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -13409,7 +13409,7 @@
         <v>10014</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N41" s="10"/>
     </row>
@@ -13445,7 +13445,7 @@
         <v>10015</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N42" s="10"/>
     </row>
@@ -13481,7 +13481,7 @@
         <v>10016</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N43" s="10"/>
     </row>
@@ -13517,7 +13517,7 @@
         <v>10017</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -13553,7 +13553,7 @@
         <v>10018</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -13589,7 +13589,7 @@
         <v>10019</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N46" s="10"/>
     </row>
@@ -13625,7 +13625,7 @@
         <v>10020</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N47" s="10"/>
     </row>
@@ -13661,7 +13661,7 @@
         <v>10021</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N48" s="10"/>
     </row>
@@ -13714,7 +13714,7 @@
         <v>10001</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>153</v>
@@ -13752,7 +13752,7 @@
         <v>10002</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N51" s="10" t="s">
         <v>142</v>
@@ -13790,7 +13790,7 @@
         <v>10003</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>143</v>
@@ -13828,7 +13828,7 @@
         <v>10004</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>144</v>
@@ -13866,7 +13866,7 @@
         <v>10005</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>145</v>
@@ -13904,7 +13904,7 @@
         <v>10006</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>146</v>
@@ -13942,7 +13942,7 @@
         <v>10007</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>147</v>
@@ -13980,7 +13980,7 @@
         <v>10008</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>148</v>
@@ -14018,7 +14018,7 @@
         <v>10009</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>152</v>
@@ -14056,7 +14056,7 @@
         <v>10010</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>149</v>
@@ -14094,7 +14094,7 @@
         <v>10011</v>
       </c>
       <c r="M60" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>151</v>
@@ -14132,7 +14132,7 @@
         <v>10012</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>150</v>
@@ -14170,7 +14170,7 @@
         <v>10013</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>122</v>
@@ -14208,7 +14208,7 @@
         <v>10014</v>
       </c>
       <c r="M63" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>156</v>
@@ -14246,7 +14246,7 @@
         <v>10015</v>
       </c>
       <c r="M64" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>160</v>
@@ -14284,7 +14284,7 @@
         <v>10016</v>
       </c>
       <c r="M65" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>157</v>
@@ -14322,7 +14322,7 @@
         <v>10017</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>133</v>
@@ -14360,7 +14360,7 @@
         <v>10018</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>159</v>
@@ -14398,7 +14398,7 @@
         <v>10019</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>155</v>
@@ -14436,7 +14436,7 @@
         <v>10020</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>158</v>
@@ -14474,7 +14474,7 @@
         <v>10021</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>154</v>
@@ -14512,7 +14512,7 @@
         <v>10001</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N71" s="10"/>
     </row>
@@ -14548,7 +14548,7 @@
         <v>10002</v>
       </c>
       <c r="M72" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -14584,7 +14584,7 @@
         <v>10003</v>
       </c>
       <c r="M73" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N73" s="10"/>
     </row>
@@ -14620,7 +14620,7 @@
         <v>10004</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N74" s="10"/>
     </row>
@@ -14656,7 +14656,7 @@
         <v>10005</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N75" s="10"/>
     </row>
@@ -14692,7 +14692,7 @@
         <v>10006</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N76" s="10"/>
     </row>
@@ -14728,7 +14728,7 @@
         <v>10007</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N77" s="10"/>
     </row>
@@ -14764,7 +14764,7 @@
         <v>10008</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N78" s="10"/>
     </row>
@@ -14800,7 +14800,7 @@
         <v>10009</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N79" s="10"/>
     </row>
@@ -14836,7 +14836,7 @@
         <v>10010</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N80" s="10"/>
     </row>
@@ -14872,7 +14872,7 @@
         <v>10011</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N81" s="10"/>
     </row>
@@ -14908,7 +14908,7 @@
         <v>10012</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N82" s="10"/>
     </row>
@@ -14944,7 +14944,7 @@
         <v>10013</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -14980,7 +14980,7 @@
         <v>10014</v>
       </c>
       <c r="M84" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N84" s="10"/>
     </row>
@@ -15016,7 +15016,7 @@
         <v>10015</v>
       </c>
       <c r="M85" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N85" s="10"/>
     </row>
@@ -15052,7 +15052,7 @@
         <v>10016</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N86" s="10"/>
     </row>
@@ -15088,7 +15088,7 @@
         <v>10017</v>
       </c>
       <c r="M87" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N87" s="10"/>
     </row>
@@ -15124,7 +15124,7 @@
         <v>10018</v>
       </c>
       <c r="M88" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N88" s="10"/>
     </row>
@@ -15160,7 +15160,7 @@
         <v>10019</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N89" s="10"/>
     </row>
@@ -15196,7 +15196,7 @@
         <v>10020</v>
       </c>
       <c r="M90" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N90" s="10"/>
     </row>
@@ -15232,7 +15232,7 @@
         <v>10021</v>
       </c>
       <c r="M91" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N91" s="10"/>
     </row>
